--- a/prot/356379915/Переход трубопровода через р. Енисей/Cрезы КД/1060.xlsx
+++ b/prot/356379915/Переход трубопровода через р. Енисей/Cрезы КД/1060.xlsx
@@ -2526,7 +2526,7 @@
         <v>0.1</v>
       </c>
       <c r="O47" s="65" t="n">
-        <v>0.06244748162096048</v>
+        <v>0.06044748162096048</v>
       </c>
       <c r="P47" s="66" t="n"/>
       <c r="Q47" s="66" t="n"/>
@@ -2545,7 +2545,7 @@
         <v>0.2</v>
       </c>
       <c r="O48" s="65" t="n">
-        <v>0.08989496324192096</v>
+        <v>0.09389496324192095</v>
       </c>
       <c r="P48" s="68">
         <f>SLOPE(O47:O49,N47:N49)</f>
@@ -2573,7 +2573,7 @@
         <v>0.3</v>
       </c>
       <c r="O49" s="65" t="n">
-        <v>0.1473424448628814</v>
+        <v>0.1453424448628814</v>
       </c>
       <c r="P49" s="71" t="n"/>
       <c r="Q49" s="71" t="n"/>
@@ -2859,26 +2859,26 @@
     </row>
     <row r="66">
       <c r="F66" s="60" t="n">
-        <v>0.001879915289628978</v>
+        <v>0.002400574011487127</v>
       </c>
       <c r="G66" s="100" t="n">
         <v>0.03301360333666525</v>
       </c>
       <c r="H66" s="100" t="n"/>
       <c r="J66" s="60" t="n">
-        <v>0.001879915289628978</v>
+        <v>0.002400574011487127</v>
       </c>
       <c r="K66" s="100" t="n">
         <v>0.03301360333666525</v>
       </c>
       <c r="L66" s="57" t="n">
-        <v>0.004168238814432608</v>
+        <v>0.003881339368028787</v>
       </c>
       <c r="M66" s="60" t="n">
         <v>0.03301360333666525</v>
       </c>
       <c r="N66" s="100" t="n">
-        <v>0.005989337272348888</v>
+        <v>0.005518886854449303</v>
       </c>
       <c r="O66" s="57" t="n">
         <v>0.03301360333666525</v>
@@ -2886,26 +2886,26 @@
     </row>
     <row r="67">
       <c r="F67" s="60" t="n">
-        <v>0.003721661255986041</v>
+        <v>0.004781552895616039</v>
       </c>
       <c r="G67" s="100" t="n">
         <v>0.06602720667333051</v>
       </c>
       <c r="H67" s="100" t="n"/>
       <c r="J67" s="60" t="n">
-        <v>0.003721661255986041</v>
+        <v>0.004781552895616039</v>
       </c>
       <c r="K67" s="100" t="n">
         <v>0.06602720667333051</v>
       </c>
       <c r="L67" s="57" t="n">
-        <v>0.008697335448064582</v>
+        <v>0.007797090895527685</v>
       </c>
       <c r="M67" s="60" t="n">
         <v>0.06602720667333051</v>
       </c>
       <c r="N67" s="100" t="n">
-        <v>0.01186085052374359</v>
+        <v>0.01065085189770108</v>
       </c>
       <c r="O67" s="57" t="n">
         <v>0.06602720667333051</v>
@@ -2913,26 +2913,26 @@
     </row>
     <row r="68">
       <c r="F68" s="60" t="n">
-        <v>0.005651888173427035</v>
+        <v>0.007363205695183725</v>
       </c>
       <c r="G68" s="100" t="n">
         <v>0.09904081000999576</v>
       </c>
       <c r="H68" s="100" t="n"/>
       <c r="J68" s="60" t="n">
-        <v>0.005651888173427035</v>
+        <v>0.007363205695183725</v>
       </c>
       <c r="K68" s="100" t="n">
         <v>0.09904081000999576</v>
       </c>
       <c r="L68" s="57" t="n">
-        <v>0.01249392714812929</v>
+        <v>0.01115633405781592</v>
       </c>
       <c r="M68" s="60" t="n">
         <v>0.09904081000999576</v>
       </c>
       <c r="N68" s="100" t="n">
-        <v>0.01846627646842188</v>
+        <v>0.01577854143752047</v>
       </c>
       <c r="O68" s="57" t="n">
         <v>0.09904081000999576</v>
@@ -2940,26 +2940,26 @@
     </row>
     <row r="69">
       <c r="F69" s="60" t="n">
-        <v>0.007767998698062688</v>
+        <v>0.009806172025688856</v>
       </c>
       <c r="G69" s="100" t="n">
         <v>0.132054413346661</v>
       </c>
       <c r="H69" s="100" t="n"/>
       <c r="J69" s="60" t="n">
-        <v>0.007767998698062688</v>
+        <v>0.009806172025688856</v>
       </c>
       <c r="K69" s="100" t="n">
         <v>0.132054413346661</v>
       </c>
       <c r="L69" s="57" t="n">
-        <v>0.01641610794559037</v>
+        <v>0.01478720076919718</v>
       </c>
       <c r="M69" s="60" t="n">
         <v>0.132054413346661</v>
       </c>
       <c r="N69" s="100" t="n">
-        <v>0.0242289102829254</v>
+        <v>0.02160990822664375</v>
       </c>
       <c r="O69" s="57" t="n">
         <v>0.132054413346661</v>
@@ -2967,26 +2967,26 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="F70" s="60" t="n">
-        <v>0.009434809568204335</v>
+        <v>0.01157915149070339</v>
       </c>
       <c r="G70" s="100" t="n">
         <v>0.1650680166833263</v>
       </c>
       <c r="H70" s="100" t="n"/>
       <c r="J70" s="60" t="n">
-        <v>0.009434809568204335</v>
+        <v>0.01157915149070339</v>
       </c>
       <c r="K70" s="100" t="n">
         <v>0.1650680166833263</v>
       </c>
       <c r="L70" s="57" t="n">
-        <v>0.02010087147391941</v>
+        <v>0.01864336386395418</v>
       </c>
       <c r="M70" s="60" t="n">
         <v>0.1650680166833263</v>
       </c>
       <c r="N70" s="100" t="n">
-        <v>0.02898975043948636</v>
+        <v>0.02677071080986643</v>
       </c>
       <c r="O70" s="57" t="n">
         <v>0.1650680166833263</v>
@@ -2994,26 +2994,26 @@
     </row>
     <row r="71">
       <c r="F71" s="60" t="n">
-        <v>0.01146421804406193</v>
+        <v>0.01362000238226131</v>
       </c>
       <c r="G71" s="100" t="n">
         <v>0.1980816200199915</v>
       </c>
       <c r="H71" s="100" t="n"/>
       <c r="J71" s="60" t="n">
-        <v>0.01146421804406193</v>
+        <v>0.01362000238226131</v>
       </c>
       <c r="K71" s="100" t="n">
         <v>0.1980816200199915</v>
       </c>
       <c r="L71" s="57" t="n">
-        <v>0.02370192119118809</v>
+        <v>0.02146968659818787</v>
       </c>
       <c r="M71" s="60" t="n">
         <v>0.1980816200199915</v>
       </c>
       <c r="N71" s="100" t="n">
-        <v>0.03347027642026128</v>
+        <v>0.03098037721356855</v>
       </c>
       <c r="O71" s="57" t="n">
         <v>0.1980816200199915</v>
@@ -3021,26 +3021,26 @@
     </row>
     <row r="72">
       <c r="F72" s="60" t="n">
-        <v>0.01332060182399681</v>
+        <v>0.01599405444834587</v>
       </c>
       <c r="G72" s="100" t="n">
         <v>0.2310952233566568</v>
       </c>
       <c r="H72" s="100" t="n"/>
       <c r="J72" s="60" t="n">
-        <v>0.01332060182399681</v>
+        <v>0.01599405444834587</v>
       </c>
       <c r="K72" s="100" t="n">
         <v>0.2310952233566568</v>
       </c>
       <c r="L72" s="57" t="n">
-        <v>0.02680486471355772</v>
+        <v>0.024753242166535</v>
       </c>
       <c r="M72" s="60" t="n">
         <v>0.2310952233566568</v>
       </c>
       <c r="N72" s="100" t="n">
-        <v>0.03962332912476857</v>
+        <v>0.0356280725157503</v>
       </c>
       <c r="O72" s="57" t="n">
         <v>0.2310952233566568</v>
@@ -3051,26 +3051,26 @@
       <c r="B73" s="59" t="n"/>
       <c r="D73" s="101" t="n"/>
       <c r="F73" s="60" t="n">
-        <v>0.01470225652265821</v>
+        <v>0.01777842841173515</v>
       </c>
       <c r="G73" s="100" t="n">
         <v>0.264108826693322</v>
       </c>
       <c r="H73" s="100" t="n"/>
       <c r="J73" s="60" t="n">
-        <v>0.01470225652265821</v>
+        <v>0.01777842841173515</v>
       </c>
       <c r="K73" s="100" t="n">
         <v>0.264108826693322</v>
       </c>
       <c r="L73" s="57" t="n">
-        <v>0.03099111306087431</v>
+        <v>0.02692496951529271</v>
       </c>
       <c r="M73" s="60" t="n">
         <v>0.264108826693322</v>
       </c>
       <c r="N73" s="100" t="n">
-        <v>0.04555057574304449</v>
+        <v>0.04158311453186905</v>
       </c>
       <c r="O73" s="57" t="n">
         <v>0.264108826693322</v>
@@ -3078,26 +3078,26 @@
     </row>
     <row r="74">
       <c r="F74" s="60" t="n">
-        <v>0.01699307282856785</v>
+        <v>0.01913488501773674</v>
       </c>
       <c r="G74" s="100" t="n">
         <v>0.2971224300299873</v>
       </c>
       <c r="H74" s="100" t="n"/>
       <c r="J74" s="60" t="n">
-        <v>0.01699307282856785</v>
+        <v>0.01913488501773674</v>
       </c>
       <c r="K74" s="100" t="n">
         <v>0.2971224300299873</v>
       </c>
       <c r="L74" s="57" t="n">
-        <v>0.03216609163844276</v>
+        <v>0.03101986356255607</v>
       </c>
       <c r="M74" s="60" t="n">
         <v>0.2971224300299873</v>
       </c>
       <c r="N74" s="100" t="n">
-        <v>0.04781907355087</v>
+        <v>0.04591010873529458</v>
       </c>
       <c r="O74" s="57" t="n">
         <v>0.2971224300299873</v>
@@ -3105,26 +3105,26 @@
     </row>
     <row r="75">
       <c r="F75" s="60" t="n">
-        <v>0.01936410152988558</v>
+        <v>0.02109093928271288</v>
       </c>
       <c r="G75" s="100" t="n">
         <v>0.3301360333666525</v>
       </c>
       <c r="H75" s="100" t="n"/>
       <c r="J75" s="60" t="n">
-        <v>0.01936410152988558</v>
+        <v>0.02109093928271288</v>
       </c>
       <c r="K75" s="100" t="n">
         <v>0.3301360333666525</v>
       </c>
       <c r="L75" s="57" t="n">
-        <v>0.03639530030503186</v>
+        <v>0.03258077577516733</v>
       </c>
       <c r="M75" s="60" t="n">
         <v>0.3301360333666525</v>
       </c>
       <c r="N75" s="100" t="n">
-        <v>0.05338826166484167</v>
+        <v>0.04908378361530705</v>
       </c>
       <c r="O75" s="57" t="n">
         <v>0.3301360333666525</v>
@@ -3134,26 +3134,26 @@
       <c r="A76" s="101" t="n"/>
       <c r="C76" s="102" t="n"/>
       <c r="F76" s="60" t="n">
-        <v>0.02037730288878686</v>
+        <v>0.02299844057170325</v>
       </c>
       <c r="G76" s="100" t="n">
         <v>0.3631496367033178</v>
       </c>
       <c r="H76" s="100" t="n"/>
       <c r="J76" s="60" t="n">
-        <v>0.02037730288878686</v>
+        <v>0.02299844057170325</v>
       </c>
       <c r="K76" s="100" t="n">
         <v>0.3631496367033178</v>
       </c>
       <c r="L76" s="57" t="n">
-        <v>0.03719433396792082</v>
+        <v>0.03603893749876932</v>
       </c>
       <c r="M76" s="60" t="n">
         <v>0.3631496367033178</v>
       </c>
       <c r="N76" s="100" t="n">
-        <v>0.0557719226780248</v>
+        <v>0.05354535805810841</v>
       </c>
       <c r="O76" s="57" t="n">
         <v>0.3631496367033178</v>
@@ -3161,25 +3161,25 @@
     </row>
     <row r="77" ht="15" customHeight="1">
       <c r="F77" t="n">
-        <v>0.023000634578202</v>
+        <v>0.0244010564910716</v>
       </c>
       <c r="G77" t="n">
         <v>0.396163240039983</v>
       </c>
       <c r="J77" t="n">
-        <v>0.023000634578202</v>
+        <v>0.0244010564910716</v>
       </c>
       <c r="K77" t="n">
         <v>0.396163240039983</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03978930950829217</v>
+        <v>0.03675944187426879</v>
       </c>
       <c r="M77" t="n">
         <v>0.396163240039983</v>
       </c>
       <c r="N77" t="n">
-        <v>0.05985364235318473</v>
+        <v>0.05972169784380071</v>
       </c>
       <c r="O77" t="n">
         <v>0.396163240039983</v>
@@ -3188,25 +3188,25 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" s="101" t="n"/>
       <c r="F78" t="n">
-        <v>0.02455895042488154</v>
+        <v>0.02536132670529707</v>
       </c>
       <c r="G78" t="n">
         <v>0.4291768433766483</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02455895042488154</v>
+        <v>0.02536132670529707</v>
       </c>
       <c r="K78" t="n">
         <v>0.4291768433766483</v>
       </c>
       <c r="L78" t="n">
-        <v>0.04111786152628603</v>
+        <v>0.0381268637836705</v>
       </c>
       <c r="M78" t="n">
         <v>0.4291768433766483</v>
       </c>
       <c r="N78" t="n">
-        <v>0.06543877977417088</v>
+        <v>0.06174179225131557</v>
       </c>
       <c r="O78" t="n">
         <v>0.4291768433766483</v>
@@ -3216,25 +3216,25 @@
       <c r="A79" s="101" t="n"/>
       <c r="D79" s="57" t="n"/>
       <c r="F79" t="n">
-        <v>0.02707059534096466</v>
+        <v>0.02679108017676148</v>
       </c>
       <c r="G79" t="n">
         <v>0.4621904467133136</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02707059534096466</v>
+        <v>0.02679108017676148</v>
       </c>
       <c r="K79" t="n">
         <v>0.4621904467133136</v>
       </c>
       <c r="L79" t="n">
-        <v>0.04334110874329863</v>
+        <v>0.04018598496834637</v>
       </c>
       <c r="M79" t="n">
         <v>0.4621904467133136</v>
       </c>
       <c r="N79" t="n">
-        <v>0.06624066841440449</v>
+        <v>0.06603019346864036</v>
       </c>
       <c r="O79" t="n">
         <v>0.4621904467133136</v>
@@ -3242,25 +3242,25 @@
     </row>
     <row r="80" ht="15" customHeight="1">
       <c r="F80" t="n">
-        <v>0.02794706557378538</v>
+        <v>0.02829159993697379</v>
       </c>
       <c r="G80" t="n">
         <v>0.4952040500499788</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02794706557378538</v>
+        <v>0.02829159993697379</v>
       </c>
       <c r="K80" t="n">
         <v>0.4952040500499788</v>
       </c>
       <c r="L80" t="n">
-        <v>0.04377709501100783</v>
+        <v>0.04178350097405698</v>
       </c>
       <c r="M80" t="n">
         <v>0.4952040500499788</v>
       </c>
       <c r="N80" t="n">
-        <v>0.06998363936593148</v>
+        <v>0.07024042903591203</v>
       </c>
       <c r="O80" t="n">
         <v>0.4952040500499788</v>
@@ -3268,25 +3268,25 @@
     </row>
     <row r="81" ht="15" customHeight="1">
       <c r="F81" t="n">
-        <v>0.03090451541478036</v>
+        <v>0.0293815376455445</v>
       </c>
       <c r="G81" t="n">
         <v>0.5282176533866441</v>
       </c>
       <c r="J81" t="n">
-        <v>0.03090451541478036</v>
+        <v>0.0293815376455445</v>
       </c>
       <c r="K81" t="n">
         <v>0.5282176533866441</v>
       </c>
       <c r="L81" t="n">
-        <v>0.0475587088282336</v>
+        <v>0.04528325729900592</v>
       </c>
       <c r="M81" t="n">
         <v>0.5282176533866441</v>
       </c>
       <c r="N81" t="n">
-        <v>0.07239983285824189</v>
+        <v>0.07281774858974369</v>
       </c>
       <c r="O81" t="n">
         <v>0.5282176533866441</v>
@@ -3296,25 +3296,25 @@
       <c r="A82" s="101" t="n"/>
       <c r="B82" s="101" t="n"/>
       <c r="F82" t="n">
-        <v>0.0317662176044143</v>
+        <v>0.03016262226660274</v>
       </c>
       <c r="G82" t="n">
         <v>0.5612312567233093</v>
       </c>
       <c r="J82" t="n">
-        <v>0.0317662176044143</v>
+        <v>0.03016262226660274</v>
       </c>
       <c r="K82" t="n">
         <v>0.5612312567233093</v>
       </c>
       <c r="L82" t="n">
-        <v>0.04809095683718792</v>
+        <v>0.04663447042462596</v>
       </c>
       <c r="M82" t="n">
         <v>0.5612312567233093</v>
       </c>
       <c r="N82" t="n">
-        <v>0.07845030134420097</v>
+        <v>0.07775509762443894</v>
       </c>
       <c r="O82" t="n">
         <v>0.5612312567233093</v>
@@ -3322,25 +3322,25 @@
     </row>
     <row r="83" ht="15" customHeight="1">
       <c r="F83" t="n">
-        <v>0.03503056061417986</v>
+        <v>0.03267475951519074</v>
       </c>
       <c r="G83" t="n">
         <v>0.5942448600599746</v>
       </c>
       <c r="J83" t="n">
-        <v>0.03503056061417986</v>
+        <v>0.03267475951519074</v>
       </c>
       <c r="K83" t="n">
         <v>0.5942448600599746</v>
       </c>
       <c r="L83" t="n">
-        <v>0.0482072006422188</v>
+        <v>0.04766180426650234</v>
       </c>
       <c r="M83" t="n">
         <v>0.5942448600599746</v>
       </c>
       <c r="N83" t="n">
-        <v>0.07979704396932123</v>
+        <v>0.08433356128078981</v>
       </c>
       <c r="O83" t="n">
         <v>0.5942448600599746</v>
@@ -3348,25 +3348,25 @@
     </row>
     <row r="84" ht="15" customHeight="1">
       <c r="F84" t="n">
-        <v>0.03688245514012747</v>
+        <v>0.03365377501806451</v>
       </c>
       <c r="G84" t="n">
         <v>0.6272584633966398</v>
       </c>
       <c r="J84" t="n">
-        <v>0.03688245514012747</v>
+        <v>0.03365377501806451</v>
       </c>
       <c r="K84" t="n">
         <v>0.6272584633966398</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04960130178991711</v>
+        <v>0.049807809539523</v>
       </c>
       <c r="M84" t="n">
         <v>0.6272584633966398</v>
       </c>
       <c r="N84" t="n">
-        <v>0.08277257626078469</v>
+        <v>0.08716662903634247</v>
       </c>
       <c r="O84" t="n">
         <v>0.6272584633966398</v>
@@ -3377,25 +3377,25 @@
       <c r="B85" s="57" t="n"/>
       <c r="D85" s="101" t="n"/>
       <c r="F85" t="n">
-        <v>0.03708438744167446</v>
+        <v>0.03337915736762857</v>
       </c>
       <c r="G85" t="n">
         <v>0.6602720667333051</v>
       </c>
       <c r="J85" t="n">
-        <v>0.03708438744167446</v>
+        <v>0.03337915736762857</v>
       </c>
       <c r="K85" t="n">
         <v>0.6602720667333051</v>
       </c>
       <c r="L85" t="n">
-        <v>0.05112800530147382</v>
+        <v>0.05270845476885058</v>
       </c>
       <c r="M85" t="n">
         <v>0.6602720667333051</v>
       </c>
       <c r="N85" t="n">
-        <v>0.08357396310335052</v>
+        <v>0.09012245097440022</v>
       </c>
       <c r="O85" t="n">
         <v>0.6602720667333051</v>
@@ -3406,25 +3406,25 @@
       <c r="B86" s="57" t="n"/>
       <c r="D86" s="101" t="n"/>
       <c r="F86" t="n">
-        <v>0.03884638101442818</v>
+        <v>0.03477646522640809</v>
       </c>
       <c r="G86" t="n">
         <v>0.6932856700699703</v>
       </c>
       <c r="J86" t="n">
-        <v>0.03884638101442818</v>
+        <v>0.03477646522640809</v>
       </c>
       <c r="K86" t="n">
         <v>0.6932856700699703</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05435835489324273</v>
+        <v>0.05377159184625147</v>
       </c>
       <c r="M86" t="n">
         <v>0.6932856700699703</v>
       </c>
       <c r="N86" t="n">
-        <v>0.09086485107561554</v>
+        <v>0.09109249199906552</v>
       </c>
       <c r="O86" t="n">
         <v>0.6932856700699703</v>
@@ -3432,25 +3432,25 @@
     </row>
     <row r="87" ht="15" customHeight="1">
       <c r="F87" t="n">
-        <v>0.04026055804003412</v>
+        <v>0.03608568224143462</v>
       </c>
       <c r="G87" t="n">
         <v>0.7262992734066356</v>
       </c>
       <c r="J87" t="n">
-        <v>0.04026055804003412</v>
+        <v>0.03608568224143462</v>
       </c>
       <c r="K87" t="n">
         <v>0.7262992734066356</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05478984914398093</v>
+        <v>0.05485271663953784</v>
       </c>
       <c r="M87" t="n">
         <v>0.7262992734066356</v>
       </c>
       <c r="N87" t="n">
-        <v>0.08994011104434395</v>
+        <v>0.09767809863588586</v>
       </c>
       <c r="O87" t="n">
         <v>0.7262992734066356</v>
@@ -3461,25 +3461,25 @@
       <c r="C88" s="59" t="n"/>
       <c r="D88" s="59" t="n"/>
       <c r="F88" t="n">
-        <v>0.04353037120270794</v>
+        <v>0.03643601340700531</v>
       </c>
       <c r="G88" t="n">
         <v>0.7593128767433008</v>
       </c>
       <c r="J88" t="n">
-        <v>0.04353037120270794</v>
+        <v>0.03643601340700531</v>
       </c>
       <c r="K88" t="n">
         <v>0.7593128767433008</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05681462290618132</v>
+        <v>0.05484995097186021</v>
       </c>
       <c r="M88" t="n">
         <v>0.7593128767433008</v>
       </c>
       <c r="N88" t="n">
-        <v>0.09642501369203488</v>
+        <v>0.09966789036449865</v>
       </c>
       <c r="O88" t="n">
         <v>0.7593128767433008</v>
@@ -3489,25 +3489,25 @@
       <c r="A89" s="57" t="n"/>
       <c r="B89" s="57" t="n"/>
       <c r="F89" t="n">
-        <v>0.04392944713468368</v>
+        <v>0.03694192146713874</v>
       </c>
       <c r="G89" t="n">
         <v>0.7923264800799661</v>
       </c>
       <c r="J89" t="n">
-        <v>0.04392944713468368</v>
+        <v>0.03694192146713874</v>
       </c>
       <c r="K89" t="n">
         <v>0.7923264800799661</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05718354068670359</v>
+        <v>0.05629956185124219</v>
       </c>
       <c r="M89" t="n">
         <v>0.7923264800799661</v>
       </c>
       <c r="N89" t="n">
-        <v>0.09409014606443955</v>
+        <v>0.0982438764639649</v>
       </c>
       <c r="O89" t="n">
         <v>0.7923264800799661</v>
@@ -3515,25 +3515,25 @@
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.04564374298059482</v>
+        <v>0.03894967796774865</v>
       </c>
       <c r="G90" t="n">
         <v>0.8253400834166313</v>
       </c>
       <c r="J90" t="n">
-        <v>0.04564374298059482</v>
+        <v>0.03894967796774865</v>
       </c>
       <c r="K90" t="n">
         <v>0.8253400834166313</v>
       </c>
       <c r="L90" t="n">
-        <v>0.05639073841239422</v>
+        <v>0.06049861289806596</v>
       </c>
       <c r="M90" t="n">
         <v>0.8253400834166313</v>
       </c>
       <c r="N90" t="n">
-        <v>0.09907275754252452</v>
+        <v>0.1047693842072879</v>
       </c>
       <c r="O90" t="n">
         <v>0.8253400834166313</v>
@@ -3541,25 +3541,25 @@
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.04641801627867232</v>
+        <v>0.0397879559880446</v>
       </c>
       <c r="G91" t="n">
         <v>0.8583536867532966</v>
       </c>
       <c r="J91" t="n">
-        <v>0.04641801627867232</v>
+        <v>0.0397879559880446</v>
       </c>
       <c r="K91" t="n">
         <v>0.8583536867532966</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06094855643649568</v>
+        <v>0.06081899258701531</v>
       </c>
       <c r="M91" t="n">
         <v>0.8583536867532966</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1000637259777973</v>
+        <v>0.1065516032757709</v>
       </c>
       <c r="O91" t="n">
         <v>0.8583536867532966</v>
@@ -3567,25 +3567,25 @@
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.04692692217489235</v>
+        <v>0.04198739410060175</v>
       </c>
       <c r="G92" t="n">
         <v>0.8913672900899619</v>
       </c>
       <c r="J92" t="n">
-        <v>0.04692692217489235</v>
+        <v>0.04198739410060175</v>
       </c>
       <c r="K92" t="n">
         <v>0.8913672900899619</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06044136976427461</v>
+        <v>0.06353442998287398</v>
       </c>
       <c r="M92" t="n">
         <v>0.8913672900899619</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1067242593154291</v>
+        <v>0.1051468482831271</v>
       </c>
       <c r="O92" t="n">
         <v>0.8913672900899619</v>
@@ -3593,25 +3593,25 @@
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.04854954592362345</v>
+        <v>0.04218658100223813</v>
       </c>
       <c r="G93" t="n">
         <v>0.9243808934266271</v>
       </c>
       <c r="J93" t="n">
-        <v>0.04854954592362345</v>
+        <v>0.04218658100223813</v>
       </c>
       <c r="K93" t="n">
         <v>0.9243808934266271</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06091824471567595</v>
+        <v>0.0646290947734226</v>
       </c>
       <c r="M93" t="n">
         <v>0.9243808934266271</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1070576570960652</v>
+        <v>0.1061823037683969</v>
       </c>
       <c r="O93" t="n">
         <v>0.9243808934266271</v>
@@ -3619,25 +3619,25 @@
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.05058628977231176</v>
+        <v>0.043905237039714</v>
       </c>
       <c r="G94" t="n">
         <v>0.9573944967632924</v>
       </c>
       <c r="J94" t="n">
-        <v>0.05058628977231176</v>
+        <v>0.043905237039714</v>
       </c>
       <c r="K94" t="n">
         <v>0.9573944967632924</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06071758887152157</v>
+        <v>0.06428127725532282</v>
       </c>
       <c r="M94" t="n">
         <v>0.9573944967632924</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1094514171908549</v>
+        <v>0.1081378019904608</v>
       </c>
       <c r="O94" t="n">
         <v>0.9573944967632924</v>
@@ -3645,25 +3645,25 @@
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.05231388382839728</v>
+        <v>0.04449776189903939</v>
       </c>
       <c r="G95" t="n">
         <v>0.9904081000999576</v>
       </c>
       <c r="J95" t="n">
-        <v>0.05231388382839728</v>
+        <v>0.04449776189903939</v>
       </c>
       <c r="K95" t="n">
         <v>0.9904081000999576</v>
       </c>
       <c r="L95" t="n">
-        <v>0.0636425477883507</v>
+        <v>0.06701727284139125</v>
       </c>
       <c r="M95" t="n">
         <v>0.9904081000999576</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1114340661291175</v>
+        <v>0.1092174137631682</v>
       </c>
       <c r="O95" t="n">
         <v>0.9904081000999576</v>
@@ -3671,25 +3671,25 @@
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.05320683695147289</v>
+        <v>0.04437349937203361</v>
       </c>
       <c r="G96" t="n">
         <v>1.023421703436623</v>
       </c>
       <c r="J96" t="n">
-        <v>0.05320683695147289</v>
+        <v>0.04437349937203361</v>
       </c>
       <c r="K96" t="n">
         <v>1.023421703436623</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06509915149515483</v>
+        <v>0.06705074698445657</v>
       </c>
       <c r="M96" t="n">
         <v>1.023421703436623</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1146160392740868</v>
+        <v>0.1137888604663323</v>
       </c>
       <c r="O96" t="n">
         <v>1.023421703436623</v>
@@ -3697,25 +3697,25 @@
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.05476803578416806</v>
+        <v>0.04615707299899827</v>
       </c>
       <c r="G97" t="n">
         <v>1.056435306773288</v>
       </c>
       <c r="J97" t="n">
-        <v>0.05476803578416806</v>
+        <v>0.04615707299899827</v>
       </c>
       <c r="K97" t="n">
         <v>1.056435306773288</v>
       </c>
       <c r="L97" t="n">
-        <v>0.06517889489207877</v>
+        <v>0.06724797757611758</v>
       </c>
       <c r="M97" t="n">
         <v>1.056435306773288</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1193272778288257</v>
+        <v>0.1120306532496838</v>
       </c>
       <c r="O97" t="n">
         <v>1.056435306773288</v>
@@ -3723,25 +3723,25 @@
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.05449196352342194</v>
+        <v>0.04713154593394565</v>
       </c>
       <c r="G98" t="n">
         <v>1.089448910109953</v>
       </c>
       <c r="J98" t="n">
-        <v>0.05449196352342194</v>
+        <v>0.04713154593394565</v>
       </c>
       <c r="K98" t="n">
         <v>1.089448910109953</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06623276357148204</v>
+        <v>0.07205894287373209</v>
       </c>
       <c r="M98" t="n">
         <v>1.089448910109953</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1217621718482069</v>
+        <v>0.1103014525144538</v>
       </c>
       <c r="O98" t="n">
         <v>1.089448910109953</v>
@@ -3749,25 +3749,25 @@
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.05612554140701839</v>
+        <v>0.0488952557617731</v>
       </c>
       <c r="G99" t="n">
         <v>1.122462513446619</v>
       </c>
       <c r="J99" t="n">
-        <v>0.05612554140701839</v>
+        <v>0.0488952557617731</v>
       </c>
       <c r="K99" t="n">
         <v>1.122462513446619</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06905341995413647</v>
+        <v>0.07278545497357877</v>
       </c>
       <c r="M99" t="n">
         <v>1.122462513446619</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1262568296379395</v>
+        <v>0.1133118186852539</v>
       </c>
       <c r="O99" t="n">
         <v>1.122462513446619</v>
@@ -3775,25 +3775,25 @@
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.056863645962167</v>
+        <v>0.04878476235615547</v>
       </c>
       <c r="G100" t="n">
         <v>1.155476116783284</v>
       </c>
       <c r="J100" t="n">
-        <v>0.056863645962167</v>
+        <v>0.04878476235615547</v>
       </c>
       <c r="K100" t="n">
         <v>1.155476116783284</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06888166653829475</v>
+        <v>0.0751500424829987</v>
       </c>
       <c r="M100" t="n">
         <v>1.155476116783284</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1254026425833283</v>
+        <v>0.1154600555643675</v>
       </c>
       <c r="O100" t="n">
         <v>1.155476116783284</v>
@@ -3801,25 +3801,25 @@
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.05874928375279187</v>
+        <v>0.04918751666328489</v>
       </c>
       <c r="G101" t="n">
         <v>1.188489720119949</v>
       </c>
       <c r="J101" t="n">
-        <v>0.05874928375279187</v>
+        <v>0.04918751666328489</v>
       </c>
       <c r="K101" t="n">
         <v>1.188489720119949</v>
       </c>
       <c r="L101" t="n">
-        <v>0.07128772748235244</v>
+        <v>0.0765765247876812</v>
       </c>
       <c r="M101" t="n">
         <v>1.188489720119949</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1272793919708751</v>
+        <v>0.1140926480355787</v>
       </c>
       <c r="O101" t="n">
         <v>1.188489720119949</v>
@@ -3827,25 +3827,25 @@
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.05892269060941911</v>
+        <v>0.04913589515002705</v>
       </c>
       <c r="G102" t="n">
         <v>1.221503323456614</v>
       </c>
       <c r="J102" t="n">
-        <v>0.05892269060941911</v>
+        <v>0.04913589515002705</v>
       </c>
       <c r="K102" t="n">
         <v>1.221503323456614</v>
       </c>
       <c r="L102" t="n">
-        <v>0.07150536886434168</v>
+        <v>0.0749500028856183</v>
       </c>
       <c r="M102" t="n">
         <v>1.221503323456614</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1300784719141204</v>
+        <v>0.1142511104174168</v>
       </c>
       <c r="O102" t="n">
         <v>1.221503323456614</v>
@@ -3853,25 +3853,25 @@
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.06044136204089849</v>
+        <v>0.05127977058816226</v>
       </c>
       <c r="G103" t="n">
         <v>1.25451692679328</v>
       </c>
       <c r="J103" t="n">
-        <v>0.06044136204089849</v>
+        <v>0.05127977058816226</v>
       </c>
       <c r="K103" t="n">
         <v>1.25451692679328</v>
       </c>
       <c r="L103" t="n">
-        <v>0.07207131355873554</v>
+        <v>0.07806394287179519</v>
       </c>
       <c r="M103" t="n">
         <v>1.25451692679328</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1310123442778128</v>
+        <v>0.1146120395109003</v>
       </c>
       <c r="O103" t="n">
         <v>1.25451692679328</v>
@@ -3879,25 +3879,25 @@
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.05900765617309457</v>
+        <v>0.05280953453757323</v>
       </c>
       <c r="G104" t="n">
         <v>1.287530530129945</v>
       </c>
       <c r="J104" t="n">
-        <v>0.05900765617309457</v>
+        <v>0.05280953453757323</v>
       </c>
       <c r="K104" t="n">
         <v>1.287530530129945</v>
       </c>
       <c r="L104" t="n">
-        <v>0.07222382864902069</v>
+        <v>0.08088417761328057</v>
       </c>
       <c r="M104" t="n">
         <v>1.287530530129945</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1340064757571158</v>
+        <v>0.1206852293261271</v>
       </c>
       <c r="O104" t="n">
         <v>1.287530530129945</v>
@@ -3905,25 +3905,25 @@
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.06053482494710197</v>
+        <v>0.05367988658134331</v>
       </c>
       <c r="G105" t="n">
         <v>1.32054413346661</v>
       </c>
       <c r="J105" t="n">
-        <v>0.06053482494710197</v>
+        <v>0.05367988658134331</v>
       </c>
       <c r="K105" t="n">
         <v>1.32054413346661</v>
       </c>
       <c r="L105" t="n">
-        <v>0.07436809539706819</v>
+        <v>0.07770852824814736</v>
       </c>
       <c r="M105" t="n">
         <v>1.32054413346661</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1334981461299869</v>
+        <v>0.1202063001308517</v>
       </c>
       <c r="O105" t="n">
         <v>1.32054413346661</v>
@@ -3931,25 +3931,25 @@
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.06078860754866468</v>
+        <v>0.05211373481428207</v>
       </c>
       <c r="G106" t="n">
         <v>1.353557736803275</v>
       </c>
       <c r="J106" t="n">
-        <v>0.06078860754866468</v>
+        <v>0.05211373481428207</v>
       </c>
       <c r="K106" t="n">
         <v>1.353557736803275</v>
       </c>
       <c r="L106" t="n">
-        <v>0.07346129798496136</v>
+        <v>0.07932516351519417</v>
       </c>
       <c r="M106" t="n">
         <v>1.353557736803275</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1392635732131805</v>
+        <v>0.1235552091066985</v>
       </c>
       <c r="O106" t="n">
         <v>1.353557736803275</v>
@@ -3957,25 +3957,25 @@
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.06244748162096048</v>
+        <v>0.05333935020542827</v>
       </c>
       <c r="G107" t="n">
         <v>1.386571340139941</v>
       </c>
       <c r="J107" t="n">
-        <v>0.06244748162096048</v>
+        <v>0.05333935020542827</v>
       </c>
       <c r="K107" t="n">
         <v>1.386571340139941</v>
       </c>
       <c r="L107" t="n">
-        <v>0.07392322763441078</v>
+        <v>0.0813618636100274</v>
       </c>
       <c r="M107" t="n">
         <v>1.386571340139941</v>
       </c>
       <c r="N107" t="n">
-        <v>0.137241449494513</v>
+        <v>0.1232961305673379</v>
       </c>
       <c r="O107" t="n">
         <v>1.386571340139941</v>
@@ -3983,25 +3983,25 @@
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.06135812511041593</v>
+        <v>0.05460936066208136</v>
       </c>
       <c r="G108" t="n">
         <v>1.419584943476606</v>
       </c>
       <c r="J108" t="n">
-        <v>0.06135812511041593</v>
+        <v>0.05460936066208136</v>
       </c>
       <c r="K108" t="n">
         <v>1.419584943476606</v>
       </c>
       <c r="L108" t="n">
-        <v>0.07575217602706066</v>
+        <v>0.08517987577747228</v>
       </c>
       <c r="M108" t="n">
         <v>1.419584943476606</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1447911980187021</v>
+        <v>0.1223760982924487</v>
       </c>
       <c r="O108" t="n">
         <v>1.419584943476606</v>
@@ -4009,25 +4009,25 @@
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.06281555404805288</v>
+        <v>0.05552051435138594</v>
       </c>
       <c r="G109" t="n">
         <v>1.452598546813271</v>
       </c>
       <c r="J109" t="n">
-        <v>0.06281555404805288</v>
+        <v>0.05552051435138594</v>
       </c>
       <c r="K109" t="n">
         <v>1.452598546813271</v>
       </c>
       <c r="L109" t="n">
-        <v>0.07345564777065682</v>
+        <v>0.08179357958017362</v>
       </c>
       <c r="M109" t="n">
         <v>1.452598546813271</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1402840037946336</v>
+        <v>0.1234300085493926</v>
       </c>
       <c r="O109" t="n">
         <v>1.452598546813271</v>
@@ -4035,25 +4035,25 @@
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.06459990428345974</v>
+        <v>0.05609724805444834</v>
       </c>
       <c r="G110" t="n">
         <v>1.485612150149936</v>
       </c>
       <c r="J110" t="n">
-        <v>0.06459990428345974</v>
+        <v>0.05609724805444834</v>
       </c>
       <c r="K110" t="n">
         <v>1.485612150149936</v>
       </c>
       <c r="L110" t="n">
-        <v>0.07632968567385404</v>
+        <v>0.08373489948668006</v>
       </c>
       <c r="M110" t="n">
         <v>1.485612150149936</v>
       </c>
       <c r="N110" t="n">
-        <v>0.142586010864397</v>
+        <v>0.1207118784938814</v>
       </c>
       <c r="O110" t="n">
         <v>1.485612150149936</v>
@@ -4061,25 +4061,25 @@
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.06278115584539017</v>
+        <v>0.05636729654274032</v>
       </c>
       <c r="G111" t="n">
         <v>1.518625753486602</v>
       </c>
       <c r="J111" t="n">
-        <v>0.06278115584539017</v>
+        <v>0.05636729654274032</v>
       </c>
       <c r="K111" t="n">
         <v>1.518625753486602</v>
       </c>
       <c r="L111" t="n">
-        <v>0.07542317514110591</v>
+        <v>0.08432427938510281</v>
       </c>
       <c r="M111" t="n">
         <v>1.518625753486602</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1421420705175123</v>
+        <v>0.120864336154395</v>
       </c>
       <c r="O111" t="n">
         <v>1.518625753486602</v>
@@ -4087,25 +4087,25 @@
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.06545235814322224</v>
+        <v>0.05755166411932604</v>
       </c>
       <c r="G112" t="n">
         <v>1.551639356823267</v>
       </c>
       <c r="J112" t="n">
-        <v>0.06545235814322224</v>
+        <v>0.05755166411932604</v>
       </c>
       <c r="K112" t="n">
         <v>1.551639356823267</v>
       </c>
       <c r="L112" t="n">
-        <v>0.07652351555327062</v>
+        <v>0.08817846282676829</v>
       </c>
       <c r="M112" t="n">
         <v>1.551639356823267</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1483463061842647</v>
+        <v>0.1266182270085621</v>
       </c>
       <c r="O112" t="n">
         <v>1.551639356823267</v>
@@ -4113,25 +4113,25 @@
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.06524403043932016</v>
+        <v>0.05554566691776155</v>
       </c>
       <c r="G113" t="n">
         <v>1.584652960159932</v>
       </c>
       <c r="J113" t="n">
-        <v>0.06524403043932016</v>
+        <v>0.05554566691776155</v>
       </c>
       <c r="K113" t="n">
         <v>1.584652960159932</v>
       </c>
       <c r="L113" t="n">
-        <v>0.08035031239739761</v>
+        <v>0.08683947938419044</v>
       </c>
       <c r="M113" t="n">
         <v>1.584652960159932</v>
       </c>
       <c r="N113" t="n">
-        <v>0.142545376773009</v>
+        <v>0.1230371859373536</v>
       </c>
       <c r="O113" t="n">
         <v>1.584652960159932</v>
@@ -4139,25 +4139,25 @@
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.06366040287709478</v>
+        <v>0.05616206548545622</v>
       </c>
       <c r="G114" t="n">
         <v>1.617666563496597</v>
       </c>
       <c r="J114" t="n">
-        <v>0.06366040287709478</v>
+        <v>0.05616206548545622</v>
       </c>
       <c r="K114" t="n">
         <v>1.617666563496597</v>
       </c>
       <c r="L114" t="n">
-        <v>0.07724573669782289</v>
+        <v>0.08443654523987959</v>
       </c>
       <c r="M114" t="n">
         <v>1.617666563496597</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1467941495630156</v>
+        <v>0.1296034803821482</v>
       </c>
       <c r="O114" t="n">
         <v>1.617666563496597</v>
@@ -4165,25 +4165,25 @@
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.06426730343285428</v>
+        <v>0.05611136363053006</v>
       </c>
       <c r="G115" t="n">
         <v>1.650680166833263</v>
       </c>
       <c r="J115" t="n">
-        <v>0.06426730343285428</v>
+        <v>0.05611136363053006</v>
       </c>
       <c r="K115" t="n">
         <v>1.650680166833263</v>
       </c>
       <c r="L115" t="n">
-        <v>0.08133927545201207</v>
+        <v>0.08689823973171192</v>
       </c>
       <c r="M115" t="n">
         <v>1.650680166833263</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1482479142605737</v>
+        <v>0.1291571808460747</v>
       </c>
       <c r="O115" t="n">
         <v>1.650680166833263</v>
@@ -4191,25 +4191,25 @@
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.06426213068188914</v>
+        <v>0.05660628092977391</v>
       </c>
       <c r="G116" t="n">
         <v>1.683693770169928</v>
       </c>
       <c r="J116" t="n">
-        <v>0.06426213068188914</v>
+        <v>0.05660628092977391</v>
       </c>
       <c r="K116" t="n">
         <v>1.683693770169928</v>
       </c>
       <c r="L116" t="n">
-        <v>0.08141021746500386</v>
+        <v>0.09023082909803282</v>
       </c>
       <c r="M116" t="n">
         <v>1.683693770169928</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1445443726399144</v>
+        <v>0.1310780488758776</v>
       </c>
       <c r="O116" t="n">
         <v>1.683693770169928</v>
@@ -4217,25 +4217,25 @@
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.06332551596411319</v>
+        <v>0.05807986542527858</v>
       </c>
       <c r="G117" t="n">
         <v>1.716707373506593</v>
       </c>
       <c r="J117" t="n">
-        <v>0.06332551596411319</v>
+        <v>0.05807986542527858</v>
       </c>
       <c r="K117" t="n">
         <v>1.716707373506593</v>
       </c>
       <c r="L117" t="n">
-        <v>0.08083965016475927</v>
+        <v>0.08816837674202714</v>
       </c>
       <c r="M117" t="n">
         <v>1.716707373506593</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1494593357468848</v>
+        <v>0.1257779956540466</v>
       </c>
       <c r="O117" t="n">
         <v>1.716707373506593</v>
@@ -4243,25 +4243,25 @@
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.06409879538927084</v>
+        <v>0.05961455705460569</v>
       </c>
       <c r="G118" t="n">
         <v>1.749720976843258</v>
       </c>
       <c r="J118" t="n">
-        <v>0.06409879538927084</v>
+        <v>0.05961455705460569</v>
       </c>
       <c r="K118" t="n">
         <v>1.749720976843258</v>
       </c>
       <c r="L118" t="n">
-        <v>0.08296345529703826</v>
+        <v>0.08648916662282866</v>
       </c>
       <c r="M118" t="n">
         <v>1.749720976843258</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1443386517267913</v>
+        <v>0.133873832457299</v>
       </c>
       <c r="O118" t="n">
         <v>1.749720976843258</v>
@@ -4269,25 +4269,25 @@
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.06529573586963454</v>
+        <v>0.05855913847269037</v>
       </c>
       <c r="G119" t="n">
         <v>1.782734580179924</v>
       </c>
       <c r="J119" t="n">
-        <v>0.06529573586963454</v>
+        <v>0.05855913847269037</v>
       </c>
       <c r="K119" t="n">
         <v>1.782734580179924</v>
       </c>
       <c r="L119" t="n">
-        <v>0.08157619306330149</v>
+        <v>0.09009416699289298</v>
       </c>
       <c r="M119" t="n">
         <v>1.782734580179924</v>
       </c>
       <c r="N119" t="n">
-        <v>0.145463701725548</v>
+        <v>0.1320441506393259</v>
       </c>
       <c r="O119" t="n">
         <v>1.782734580179924</v>
@@ -4295,25 +4295,25 @@
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.0633319596634279</v>
+        <v>0.05961270582268687</v>
       </c>
       <c r="G120" t="n">
         <v>1.815748183516589</v>
       </c>
       <c r="J120" t="n">
-        <v>0.0633319596634279</v>
+        <v>0.05961270582268687</v>
       </c>
       <c r="K120" t="n">
         <v>1.815748183516589</v>
       </c>
       <c r="L120" t="n">
-        <v>0.08433584916704455</v>
+        <v>0.08847044630659269</v>
       </c>
       <c r="M120" t="n">
         <v>1.815748183516589</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1473426062775205</v>
+        <v>0.1303233045111602</v>
       </c>
       <c r="O120" t="n">
         <v>1.815748183516589</v>
@@ -4321,25 +4321,25 @@
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.06201742412418922</v>
+        <v>0.05920868708139212</v>
       </c>
       <c r="G121" t="n">
         <v>1.848761786853254</v>
       </c>
       <c r="J121" t="n">
-        <v>0.06201742412418922</v>
+        <v>0.05920868708139212</v>
       </c>
       <c r="K121" t="n">
         <v>1.848761786853254</v>
       </c>
       <c r="L121" t="n">
-        <v>0.08313431428682068</v>
+        <v>0.09222180615447061</v>
       </c>
       <c r="M121" t="n">
         <v>1.848761786853254</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1477445648818968</v>
+        <v>0.1343885094065177</v>
       </c>
       <c r="O121" t="n">
         <v>1.848761786853254</v>
@@ -4347,25 +4347,25 @@
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.06295321242753006</v>
+        <v>0.05974524571625117</v>
       </c>
       <c r="G122" t="n">
         <v>1.881775390189919</v>
       </c>
       <c r="J122" t="n">
-        <v>0.06295321242753006</v>
+        <v>0.05974524571625117</v>
       </c>
       <c r="K122" t="n">
         <v>1.881775390189919</v>
       </c>
       <c r="L122" t="n">
-        <v>0.08202504286829324</v>
+        <v>0.08742404715822598</v>
       </c>
       <c r="M122" t="n">
         <v>1.881775390189919</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1465777087577332</v>
+        <v>0.1365719579204883</v>
       </c>
       <c r="O122" t="n">
         <v>1.881775390189919</v>
@@ -4373,25 +4373,25 @@
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.06350155206300476</v>
+        <v>0.05938879548546461</v>
       </c>
       <c r="G123" t="n">
         <v>1.914788993526585</v>
       </c>
       <c r="J123" t="n">
-        <v>0.06350155206300476</v>
+        <v>0.05938879548546461</v>
       </c>
       <c r="K123" t="n">
         <v>1.914788993526585</v>
       </c>
       <c r="L123" t="n">
-        <v>0.08193096215904822</v>
+        <v>0.09038612445733137</v>
       </c>
       <c r="M123" t="n">
         <v>1.914788993526585</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1479313325787275</v>
+        <v>0.1324141610815414</v>
       </c>
       <c r="O123" t="n">
         <v>1.914788993526585</v>
@@ -4399,25 +4399,25 @@
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.06492502449461066</v>
+        <v>0.05727647659856558</v>
       </c>
       <c r="G124" t="n">
         <v>1.94780259686325</v>
       </c>
       <c r="J124" t="n">
-        <v>0.06492502449461066</v>
+        <v>0.05727647659856558</v>
       </c>
       <c r="K124" t="n">
         <v>1.94780259686325</v>
       </c>
       <c r="L124" t="n">
-        <v>0.08314942380502725</v>
+        <v>0.08925752686045789</v>
       </c>
       <c r="M124" t="n">
         <v>1.94780259686325</v>
       </c>
       <c r="N124" t="n">
-        <v>0.14992434851752</v>
+        <v>0.1349882920924654</v>
       </c>
       <c r="O124" t="n">
         <v>1.94780259686325</v>
@@ -4425,25 +4425,25 @@
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.06524101737975943</v>
+        <v>0.05880063969106007</v>
       </c>
       <c r="G125" t="n">
         <v>1.980816200199915</v>
       </c>
       <c r="J125" t="n">
-        <v>0.06524101737975943</v>
+        <v>0.05880063969106007</v>
       </c>
       <c r="K125" t="n">
         <v>1.980816200199915</v>
       </c>
       <c r="L125" t="n">
-        <v>0.08628931216573033</v>
+        <v>0.09259980623551818</v>
       </c>
       <c r="M125" t="n">
         <v>1.980816200199915</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1422791710706732</v>
+        <v>0.1327653748034048</v>
       </c>
       <c r="O125" t="n">
         <v>1.980816200199915</v>
@@ -4451,25 +4451,25 @@
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.06485284730693452</v>
+        <v>0.05846293573875396</v>
       </c>
       <c r="G126" t="n">
         <v>2.013829803536581</v>
       </c>
       <c r="J126" t="n">
-        <v>0.06485284730693452</v>
+        <v>0.05846293573875396</v>
       </c>
       <c r="K126" t="n">
         <v>2.013829803536581</v>
       </c>
       <c r="L126" t="n">
-        <v>0.08335883967379835</v>
+        <v>0.0896765994794856</v>
       </c>
       <c r="M126" t="n">
         <v>2.013829803536581</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1491958427639236</v>
+        <v>0.1387435898977478</v>
       </c>
       <c r="O126" t="n">
         <v>2.013829803536581</v>
@@ -4477,25 +4477,25 @@
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.06490043364611228</v>
+        <v>0.05837124864514926</v>
       </c>
       <c r="G127" t="n">
         <v>2.046843406873246</v>
       </c>
       <c r="J127" t="n">
-        <v>0.06490043364611228</v>
+        <v>0.05837124864514926</v>
       </c>
       <c r="K127" t="n">
         <v>2.046843406873246</v>
       </c>
       <c r="L127" t="n">
-        <v>0.08523040619689803</v>
+        <v>0.08927298227777122</v>
       </c>
       <c r="M127" t="n">
         <v>2.046843406873246</v>
       </c>
       <c r="N127" t="n">
-        <v>0.149795863431327</v>
+        <v>0.1407715744292906</v>
       </c>
       <c r="O127" t="n">
         <v>2.046843406873246</v>
@@ -4503,25 +4503,25 @@
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.0649443865160078</v>
+        <v>0.05876542720999073</v>
       </c>
       <c r="G128" t="n">
         <v>2.079857010209911</v>
       </c>
       <c r="J128" t="n">
-        <v>0.0649443865160078</v>
+        <v>0.05876542720999073</v>
       </c>
       <c r="K128" t="n">
         <v>2.079857010209911</v>
       </c>
       <c r="L128" t="n">
-        <v>0.08402513660393332</v>
+        <v>0.09359121529247057</v>
       </c>
       <c r="M128" t="n">
         <v>2.079857010209911</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1476756212505383</v>
+        <v>0.1369501529743476</v>
       </c>
       <c r="O128" t="n">
         <v>2.079857010209911</v>
@@ -4529,25 +4529,25 @@
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.06158287902929128</v>
+        <v>0.05871748283354368</v>
       </c>
       <c r="G129" t="n">
         <v>2.112870613546576</v>
       </c>
       <c r="J129" t="n">
-        <v>0.06158287902929128</v>
+        <v>0.05871748283354368</v>
       </c>
       <c r="K129" t="n">
         <v>2.112870613546576</v>
       </c>
       <c r="L129" t="n">
-        <v>0.08732875486870373</v>
+        <v>0.09450795156631148</v>
       </c>
       <c r="M129" t="n">
         <v>2.112870613546576</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1483942644872298</v>
+        <v>0.1392072711150509</v>
       </c>
       <c r="O129" t="n">
         <v>2.112870613546576</v>
@@ -4555,25 +4555,25 @@
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.06450801842179395</v>
+        <v>0.05959372004771359</v>
       </c>
       <c r="G130" t="n">
         <v>2.145884216883242</v>
       </c>
       <c r="J130" t="n">
-        <v>0.06450801842179395</v>
+        <v>0.05959372004771359</v>
       </c>
       <c r="K130" t="n">
         <v>2.145884216883242</v>
       </c>
       <c r="L130" t="n">
-        <v>0.08897260224228687</v>
+        <v>0.0908284097988986</v>
       </c>
       <c r="M130" t="n">
         <v>2.145884216883242</v>
       </c>
       <c r="N130" t="n">
-        <v>0.143672198647319</v>
+        <v>0.1406432007317046</v>
       </c>
       <c r="O130" t="n">
         <v>2.145884216883242</v>
@@ -4581,25 +4581,25 @@
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.06211605277026758</v>
+        <v>0.05838046856068138</v>
       </c>
       <c r="G131" t="n">
         <v>2.178897820219907</v>
       </c>
       <c r="J131" t="n">
-        <v>0.06211605277026758</v>
+        <v>0.05838046856068138</v>
       </c>
       <c r="K131" t="n">
         <v>2.178897820219907</v>
       </c>
       <c r="L131" t="n">
-        <v>0.09018216014639395</v>
+        <v>0.09537428271084672</v>
       </c>
       <c r="M131" t="n">
         <v>2.178897820219907</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1481092376755102</v>
+        <v>0.1379603379153398</v>
       </c>
       <c r="O131" t="n">
         <v>2.178897820219907</v>
@@ -4607,25 +4607,25 @@
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.0650659130687354</v>
+        <v>0.05865432005575671</v>
       </c>
       <c r="G132" t="n">
         <v>2.211911423556572</v>
       </c>
       <c r="J132" t="n">
-        <v>0.0650659130687354</v>
+        <v>0.05865432005575671</v>
       </c>
       <c r="K132" t="n">
         <v>2.211911423556572</v>
       </c>
       <c r="L132" t="n">
-        <v>0.08698935712178707</v>
+        <v>0.09395271993069308</v>
       </c>
       <c r="M132" t="n">
         <v>2.211911423556572</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1448983447731482</v>
+        <v>0.1405746442609278</v>
       </c>
       <c r="O132" t="n">
         <v>2.211911423556572</v>
@@ -4633,25 +4633,25 @@
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.06472595661590094</v>
+        <v>0.06140142639691135</v>
       </c>
       <c r="G133" t="n">
         <v>2.244925026893237</v>
       </c>
       <c r="J133" t="n">
-        <v>0.06472595661590094</v>
+        <v>0.06140142639691135</v>
       </c>
       <c r="K133" t="n">
         <v>2.244925026893237</v>
       </c>
       <c r="L133" t="n">
-        <v>0.08653922081273673</v>
+        <v>0.09088633693835084</v>
       </c>
       <c r="M133" t="n">
         <v>2.244925026893237</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1495475430636182</v>
+        <v>0.1413488351965459</v>
       </c>
       <c r="O133" t="n">
         <v>2.244925026893237</v>
@@ -4659,25 +4659,25 @@
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.06409319934450396</v>
+        <v>0.05959342649712331</v>
       </c>
       <c r="G134" t="n">
         <v>2.277938630229903</v>
       </c>
       <c r="J134" t="n">
-        <v>0.06409319934450396</v>
+        <v>0.05959342649712331</v>
       </c>
       <c r="K134" t="n">
         <v>2.277938630229903</v>
       </c>
       <c r="L134" t="n">
-        <v>0.08874858916244123</v>
+        <v>0.09120957907707627</v>
       </c>
       <c r="M134" t="n">
         <v>2.277938630229903</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1476457145605485</v>
+        <v>0.1459990666960191</v>
       </c>
       <c r="O134" t="n">
         <v>2.277938630229903</v>
@@ -4685,25 +4685,25 @@
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.06449272528806302</v>
+        <v>0.05974118424081727</v>
       </c>
       <c r="G135" t="n">
         <v>2.310952233566568</v>
       </c>
       <c r="J135" t="n">
-        <v>0.06449272528806302</v>
+        <v>0.05974118424081727</v>
       </c>
       <c r="K135" t="n">
         <v>2.310952233566568</v>
       </c>
       <c r="L135" t="n">
-        <v>0.08897293608856068</v>
+        <v>0.09441841498138129</v>
       </c>
       <c r="M135" t="n">
         <v>2.310952233566568</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1477819338616272</v>
+        <v>0.1414422833219259</v>
       </c>
       <c r="O135" t="n">
         <v>2.310952233566568</v>
@@ -4711,25 +4711,25 @@
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.06111671816840183</v>
+        <v>0.0595665775527214</v>
       </c>
       <c r="G136" t="n">
         <v>2.343965836903233</v>
       </c>
       <c r="J136" t="n">
-        <v>0.06111671816840183</v>
+        <v>0.0595665775527214</v>
       </c>
       <c r="K136" t="n">
         <v>2.343965836903233</v>
       </c>
       <c r="L136" t="n">
-        <v>0.08840463575867059</v>
+        <v>0.09406281290203011</v>
       </c>
       <c r="M136" t="n">
         <v>2.343965836903233</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1506501618864299</v>
+        <v>0.1443925304726568</v>
       </c>
       <c r="O136" t="n">
         <v>2.343965836903233</v>
@@ -4737,25 +4737,25 @@
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.06357538219967164</v>
+        <v>0.05914700343948547</v>
       </c>
       <c r="G137" t="n">
         <v>2.376979440239898</v>
       </c>
       <c r="J137" t="n">
-        <v>0.06357538219967164</v>
+        <v>0.05914700343948547</v>
       </c>
       <c r="K137" t="n">
         <v>2.376979440239898</v>
       </c>
       <c r="L137" t="n">
-        <v>0.08886045637301283</v>
+        <v>0.09640046702107709</v>
       </c>
       <c r="M137" t="n">
         <v>2.376979440239898</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1504940828058964</v>
+        <v>0.1443481589467406</v>
       </c>
       <c r="O137" t="n">
         <v>2.376979440239898</v>
@@ -4763,25 +4763,25 @@
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.06243275961405504</v>
+        <v>0.05883811187841443</v>
       </c>
       <c r="G138" t="n">
         <v>2.409993043576564</v>
       </c>
       <c r="J138" t="n">
-        <v>0.06243275961405504</v>
+        <v>0.05883811187841443</v>
       </c>
       <c r="K138" t="n">
         <v>2.409993043576564</v>
       </c>
       <c r="L138" t="n">
-        <v>0.08772983600265032</v>
+        <v>0.09215976442196254</v>
       </c>
       <c r="M138" t="n">
         <v>2.409993043576564</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1431283468494035</v>
+        <v>0.1452367406062847</v>
       </c>
       <c r="O138" t="n">
         <v>2.409993043576564</v>
@@ -4789,25 +4789,25 @@
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.06203032406118954</v>
+        <v>0.06175125089762854</v>
       </c>
       <c r="G139" t="n">
         <v>2.443006646913229</v>
       </c>
       <c r="J139" t="n">
-        <v>0.06203032406118954</v>
+        <v>0.06175125089762854</v>
       </c>
       <c r="K139" t="n">
         <v>2.443006646913229</v>
       </c>
       <c r="L139" t="n">
-        <v>0.08946310383765237</v>
+        <v>0.09424976931635534</v>
       </c>
       <c r="M139" t="n">
         <v>2.443006646913229</v>
       </c>
       <c r="N139" t="n">
-        <v>0.150588630623583</v>
+        <v>0.1421427295695741</v>
       </c>
       <c r="O139" t="n">
         <v>2.443006646913229</v>
@@ -4815,25 +4815,25 @@
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.06089995991123118</v>
+        <v>0.06044748162096048</v>
       </c>
       <c r="G140" t="n">
         <v>2.476020250249894</v>
       </c>
       <c r="J140" t="n">
-        <v>0.06089995991123118</v>
+        <v>0.06044748162096048</v>
       </c>
       <c r="K140" t="n">
         <v>2.476020250249894</v>
       </c>
       <c r="L140" t="n">
-        <v>0.08799721735876774</v>
+        <v>0.09389496324192095</v>
       </c>
       <c r="M140" t="n">
         <v>2.476020250249894</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1473424448628814</v>
+        <v>0.1433549124822037</v>
       </c>
       <c r="O140" t="n">
         <v>2.476020250249894</v>
@@ -4841,25 +4841,25 @@
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.06367114372220928</v>
+        <v>0.06021527786057093</v>
       </c>
       <c r="G141" t="n">
         <v>2.509033853586559</v>
       </c>
       <c r="J141" t="n">
-        <v>0.06367114372220928</v>
+        <v>0.06021527786057093</v>
       </c>
       <c r="K141" t="n">
         <v>2.509033853586559</v>
       </c>
       <c r="L141" t="n">
-        <v>0.08989496324192096</v>
+        <v>0.09145741484998424</v>
       </c>
       <c r="M141" t="n">
         <v>2.509033853586559</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1455138023320277</v>
+        <v>0.1453424448628814</v>
       </c>
       <c r="O141" t="n">
         <v>2.509033853586559</v>
@@ -4867,25 +4867,25 @@
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.06427381690951595</v>
+        <v>0.06040788739392511</v>
       </c>
       <c r="G142" t="n">
         <v>2.542047456923225</v>
       </c>
       <c r="J142" t="n">
-        <v>0.06427381690951595</v>
+        <v>0.06040788739392511</v>
       </c>
       <c r="K142" t="n">
         <v>2.542047456923225</v>
       </c>
       <c r="L142" t="n">
-        <v>0.0897240201819085</v>
+        <v>0.09481835388552026</v>
       </c>
       <c r="M142" t="n">
         <v>2.542047456923225</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1464829827631466</v>
+        <v>0.1418204856842122</v>
       </c>
       <c r="O142" t="n">
         <v>2.542047456923225</v>
@@ -4893,25 +4893,25 @@
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.06314201095319341</v>
+        <v>0.06043616627426529</v>
       </c>
       <c r="G143" t="n">
         <v>2.57506106025989</v>
       </c>
       <c r="J143" t="n">
-        <v>0.06314201095319341</v>
+        <v>0.06043616627426529</v>
       </c>
       <c r="K143" t="n">
         <v>2.57506106025989</v>
       </c>
       <c r="L143" t="n">
-        <v>0.08761387658291266</v>
+        <v>0.09442331631838119</v>
       </c>
       <c r="M143" t="n">
         <v>2.57506106025989</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1451043538896797</v>
+        <v>0.1412617276186761</v>
       </c>
       <c r="O143" t="n">
         <v>2.57506106025989</v>
@@ -4919,25 +4919,25 @@
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.06321683275767172</v>
+        <v>0.05926477194682882</v>
       </c>
       <c r="G144" t="n">
         <v>2.608074663596555</v>
       </c>
       <c r="J144" t="n">
-        <v>0.06321683275767172</v>
+        <v>0.05926477194682882</v>
       </c>
       <c r="K144" t="n">
         <v>2.608074663596555</v>
       </c>
       <c r="L144" t="n">
-        <v>0.08984386826323448</v>
+        <v>0.09545065545636458</v>
       </c>
       <c r="M144" t="n">
         <v>2.608074663596555</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1462335605794277</v>
+        <v>0.1431337223007167</v>
       </c>
       <c r="O144" t="n">
         <v>2.608074663596555</v>
@@ -4945,25 +4945,25 @@
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.0606742107618849</v>
+        <v>0.06031455245636012</v>
       </c>
       <c r="G145" t="n">
         <v>2.64108826693322</v>
       </c>
       <c r="J145" t="n">
-        <v>0.0606742107618849</v>
+        <v>0.06031455245636012</v>
       </c>
       <c r="K145" t="n">
         <v>2.64108826693322</v>
       </c>
       <c r="L145" t="n">
-        <v>0.08815713640492336</v>
+        <v>0.09441539695155242</v>
       </c>
       <c r="M145" t="n">
         <v>2.64108826693322</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1437126716167264</v>
+        <v>0.1479345517440317</v>
       </c>
       <c r="O145" t="n">
         <v>2.64108826693322</v>
@@ -4971,25 +4971,25 @@
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.05986983687870817</v>
+        <v>0.06000472928431144</v>
       </c>
       <c r="G146" t="n">
         <v>2.674101870269886</v>
       </c>
       <c r="J146" t="n">
-        <v>0.05986983687870817</v>
+        <v>0.06000472928431144</v>
       </c>
       <c r="K146" t="n">
         <v>2.674101870269886</v>
       </c>
       <c r="L146" t="n">
-        <v>0.08601528413554109</v>
+        <v>0.09389101677288812</v>
       </c>
       <c r="M146" t="n">
         <v>2.674101870269886</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1482016012782279</v>
+        <v>0.1441444232117566</v>
       </c>
       <c r="O146" t="n">
         <v>2.674101870269886</v>
@@ -4997,25 +4997,25 @@
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.06138632726570967</v>
+        <v>0.05801591521288241</v>
       </c>
       <c r="G147" t="n">
         <v>2.707115473606551</v>
       </c>
       <c r="J147" t="n">
-        <v>0.06138632726570967</v>
+        <v>0.05801591521288241</v>
       </c>
       <c r="K147" t="n">
         <v>2.707115473606551</v>
       </c>
       <c r="L147" t="n">
-        <v>0.08533447689875301</v>
+        <v>0.09309294540832225</v>
       </c>
       <c r="M147" t="n">
         <v>2.707115473606551</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1431481553471471</v>
+        <v>0.143170245760301</v>
       </c>
       <c r="O147" t="n">
         <v>2.707115473606551</v>
@@ -5023,25 +5023,25 @@
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.05898708136517315</v>
+        <v>0.05748255996975129</v>
       </c>
       <c r="G148" t="n">
         <v>2.740129076943216</v>
       </c>
       <c r="J148" t="n">
-        <v>0.05898708136517315</v>
+        <v>0.05748255996975129</v>
       </c>
       <c r="K148" t="n">
         <v>2.740129076943216</v>
       </c>
       <c r="L148" t="n">
-        <v>0.08407707185232442</v>
+        <v>0.09045738106711769</v>
       </c>
       <c r="M148" t="n">
         <v>2.740129076943216</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1484623523537004</v>
+        <v>0.1470715822591947</v>
       </c>
       <c r="O148" t="n">
         <v>2.740129076943216</v>
@@ -5049,25 +5049,25 @@
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.06004203856215846</v>
+        <v>0.06008247646926513</v>
       </c>
       <c r="G149" t="n">
         <v>2.773142680279881</v>
       </c>
       <c r="J149" t="n">
-        <v>0.06004203856215846</v>
+        <v>0.06008247646926513</v>
       </c>
       <c r="K149" t="n">
         <v>2.773142680279881</v>
       </c>
       <c r="L149" t="n">
-        <v>0.08593012056880761</v>
+        <v>0.09018744701534569</v>
       </c>
       <c r="M149" t="n">
         <v>2.773142680279881</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1471664102992299</v>
+        <v>0.1454041968768573</v>
       </c>
       <c r="O149" t="n">
         <v>2.773142680279881</v>
@@ -5075,25 +5075,25 @@
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.06021437445218759</v>
+        <v>0.05868158803059192</v>
       </c>
       <c r="G150" t="n">
         <v>2.806156283616547</v>
       </c>
       <c r="J150" t="n">
-        <v>0.06021437445218759</v>
+        <v>0.05868158803059192</v>
       </c>
       <c r="K150" t="n">
         <v>2.806156283616547</v>
       </c>
       <c r="L150" t="n">
-        <v>0.08351762518477071</v>
+        <v>0.09108867177477414</v>
       </c>
       <c r="M150" t="n">
         <v>2.806156283616547</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1437446295422256</v>
+        <v>0.1407597868614797</v>
       </c>
       <c r="O150" t="n">
         <v>2.806156283616547</v>
@@ -5101,25 +5101,25 @@
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.06035226452575831</v>
+        <v>0.05798736801656902</v>
       </c>
       <c r="G151" t="n">
         <v>2.839169886953212</v>
       </c>
       <c r="J151" t="n">
-        <v>0.06035226452575831</v>
+        <v>0.05798736801656902</v>
       </c>
       <c r="K151" t="n">
         <v>2.839169886953212</v>
       </c>
       <c r="L151" t="n">
-        <v>0.08362099171490689</v>
+        <v>0.08872360579988028</v>
       </c>
       <c r="M151" t="n">
         <v>2.839169886953212</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1395399144875529</v>
+        <v>0.144862727510972</v>
       </c>
       <c r="O151" t="n">
         <v>2.839169886953212</v>
@@ -5127,25 +5127,25 @@
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.05955416860399524</v>
+        <v>0.05691340124369073</v>
       </c>
       <c r="G152" t="n">
         <v>2.872183490289877</v>
       </c>
       <c r="J152" t="n">
-        <v>0.05955416860399524</v>
+        <v>0.05691340124369073</v>
       </c>
       <c r="K152" t="n">
         <v>2.872183490289877</v>
       </c>
       <c r="L152" t="n">
-        <v>0.08382902720274854</v>
+        <v>0.08805212463354629</v>
       </c>
       <c r="M152" t="n">
         <v>2.872183490289877</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1408638528212</v>
+        <v>0.1382147885636365</v>
       </c>
       <c r="O152" t="n">
         <v>2.872183490289877</v>
@@ -5153,25 +5153,25 @@
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.0574548911509422</v>
+        <v>0.05545120852359981</v>
       </c>
       <c r="G153" t="n">
         <v>2.905197093626542</v>
       </c>
       <c r="J153" t="n">
-        <v>0.0574548911509422</v>
+        <v>0.05545120852359981</v>
       </c>
       <c r="K153" t="n">
         <v>2.905197093626542</v>
       </c>
       <c r="L153" t="n">
-        <v>0.08010295343410313</v>
+        <v>0.0863637253907503</v>
       </c>
       <c r="M153" t="n">
         <v>2.905197093626542</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1453150307540064</v>
+        <v>0.140167380913739</v>
       </c>
       <c r="O153" t="n">
         <v>2.905197093626542</v>
@@ -5179,25 +5179,25 @@
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.05708767187725998</v>
+        <v>0.05760235522956769</v>
       </c>
       <c r="G154" t="n">
         <v>2.938210696963208</v>
       </c>
       <c r="J154" t="n">
-        <v>0.05708767187725998</v>
+        <v>0.05760235522956769</v>
       </c>
       <c r="K154" t="n">
         <v>2.938210696963208</v>
       </c>
       <c r="L154" t="n">
-        <v>0.07699309957042161</v>
+        <v>0.08496850945172316</v>
       </c>
       <c r="M154" t="n">
         <v>2.938210696963208</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1388720414926417</v>
+        <v>0.1363088050001443</v>
       </c>
       <c r="O154" t="n">
         <v>2.938210696963208</v>
@@ -5205,25 +5205,25 @@
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.05653841139099652</v>
+        <v>0.054412335001958</v>
       </c>
       <c r="G155" t="n">
         <v>2.971224300299873</v>
       </c>
       <c r="J155" t="n">
-        <v>0.05653841139099652</v>
+        <v>0.054412335001958</v>
       </c>
       <c r="K155" t="n">
         <v>2.971224300299873</v>
       </c>
       <c r="L155" t="n">
-        <v>0.07647715409904782</v>
+        <v>0.08529669904117229</v>
       </c>
       <c r="M155" t="n">
         <v>2.971224300299873</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1432067861575298</v>
+        <v>0.1357286712085863</v>
       </c>
       <c r="O155" t="n">
         <v>2.971224300299873</v>
@@ -5231,25 +5231,25 @@
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.05639019610439693</v>
+        <v>0.05546635296015134</v>
       </c>
       <c r="G156" t="n">
         <v>3.004237903636538</v>
       </c>
       <c r="J156" t="n">
-        <v>0.05639019610439693</v>
+        <v>0.05546635296015134</v>
       </c>
       <c r="K156" t="n">
         <v>3.004237903636538</v>
       </c>
       <c r="L156" t="n">
-        <v>0.07437527551518822</v>
+        <v>0.08195010698231067</v>
       </c>
       <c r="M156" t="n">
         <v>3.004237903636538</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1364084430770147</v>
+        <v>0.136486557669399</v>
       </c>
       <c r="O156" t="n">
         <v>3.004237903636538</v>
@@ -5257,25 +5257,25 @@
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.05539305461855908</v>
+        <v>0.05382262778476297</v>
       </c>
       <c r="G157" t="n">
         <v>3.037251506973203</v>
       </c>
       <c r="J157" t="n">
-        <v>0.05539305461855908</v>
+        <v>0.05382262778476297</v>
       </c>
       <c r="K157" t="n">
         <v>3.037251506973203</v>
       </c>
       <c r="L157" t="n">
-        <v>0.07317674216696139</v>
+        <v>0.08248389605009988</v>
       </c>
       <c r="M157" t="n">
         <v>3.037251506973203</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1357857150666436</v>
+        <v>0.1354546395833127</v>
       </c>
       <c r="O157" t="n">
         <v>3.037251506973203</v>
@@ -5283,25 +5283,25 @@
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.05436249627713981</v>
+        <v>0.05509842039405025</v>
       </c>
       <c r="G158" t="n">
         <v>3.070265110309869</v>
       </c>
       <c r="J158" t="n">
-        <v>0.05436249627713981</v>
+        <v>0.05509842039405025</v>
       </c>
       <c r="K158" t="n">
         <v>3.070265110309869</v>
       </c>
       <c r="L158" t="n">
-        <v>0.07165695599002471</v>
+        <v>0.08316884677072328</v>
       </c>
       <c r="M158" t="n">
         <v>3.070265110309869</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1331573846922862</v>
+        <v>0.1331352604743506</v>
       </c>
       <c r="O158" t="n">
         <v>3.070265110309869</v>
@@ -5309,25 +5309,25 @@
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.05190377131428619</v>
+        <v>0.05349239142349591</v>
       </c>
       <c r="G159" t="n">
         <v>3.103278713646534</v>
       </c>
       <c r="J159" t="n">
-        <v>0.05190377131428619</v>
+        <v>0.05349239142349591</v>
       </c>
       <c r="K159" t="n">
         <v>3.103278713646534</v>
       </c>
       <c r="L159" t="n">
-        <v>0.07224821205705233</v>
+        <v>0.08257969533445565</v>
       </c>
       <c r="M159" t="n">
         <v>3.103278713646534</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1326771213426731</v>
+        <v>0.1369263024993753</v>
       </c>
       <c r="O159" t="n">
         <v>3.103278713646534</v>
@@ -5335,25 +5335,25 @@
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.05042105910955816</v>
+        <v>0.05148759169191606</v>
       </c>
       <c r="G160" t="n">
         <v>3.136292316983199</v>
       </c>
       <c r="J160" t="n">
-        <v>0.05042105910955816</v>
+        <v>0.05148759169191606</v>
       </c>
       <c r="K160" t="n">
         <v>3.136292316983199</v>
       </c>
       <c r="L160" t="n">
-        <v>0.07079297138091609</v>
+        <v>0.07995229043045567</v>
       </c>
       <c r="M160" t="n">
         <v>3.136292316983199</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1368732013134508</v>
+        <v>0.1302314173108238</v>
       </c>
       <c r="O160" t="n">
         <v>3.136292316983199</v>
@@ -5361,25 +5361,25 @@
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.05200379160889992</v>
+        <v>0.05322341340544427</v>
       </c>
       <c r="G161" t="n">
         <v>3.169305920319864</v>
       </c>
       <c r="J161" t="n">
-        <v>0.05200379160889992</v>
+        <v>0.05322341340544427</v>
       </c>
       <c r="K161" t="n">
         <v>3.169305920319864</v>
       </c>
       <c r="L161" t="n">
-        <v>0.07016563070270157</v>
+        <v>0.07719676789451212</v>
       </c>
       <c r="M161" t="n">
         <v>3.169305920319864</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1317868775978463</v>
+        <v>0.1303515851165187</v>
       </c>
       <c r="O161" t="n">
         <v>3.169305920319864</v>
@@ -5387,25 +5387,25 @@
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.04986826463668482</v>
+        <v>0.05288628008826011</v>
       </c>
       <c r="G162" t="n">
         <v>3.20231952365653</v>
       </c>
       <c r="J162" t="n">
-        <v>0.04986826463668482</v>
+        <v>0.05288628008826011</v>
       </c>
       <c r="K162" t="n">
         <v>3.20231952365653</v>
       </c>
       <c r="L162" t="n">
-        <v>0.06778268863270187</v>
+        <v>0.07807059257918038</v>
       </c>
       <c r="M162" t="n">
         <v>3.20231952365653</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1339557088839614</v>
+        <v>0.1282049504112955</v>
       </c>
       <c r="O162" t="n">
         <v>3.20231952365653</v>
@@ -5413,25 +5413,25 @@
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.05057912844354392</v>
+        <v>0.05184848896029616</v>
       </c>
       <c r="G163" t="n">
         <v>3.235333126993195</v>
       </c>
       <c r="J163" t="n">
-        <v>0.05057912844354392</v>
+        <v>0.05184848896029616</v>
       </c>
       <c r="K163" t="n">
         <v>3.235333126993195</v>
       </c>
       <c r="L163" t="n">
-        <v>0.06680618246525936</v>
+        <v>0.07826812558323276</v>
       </c>
       <c r="M163" t="n">
         <v>3.235333126993195</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1307160903311224</v>
+        <v>0.1261960053151883</v>
       </c>
       <c r="O163" t="n">
         <v>3.235333126993195</v>
@@ -5439,25 +5439,25 @@
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.04905550416868355</v>
+        <v>0.05046535858283922</v>
       </c>
       <c r="G164" t="n">
         <v>3.26834673032986</v>
       </c>
       <c r="J164" t="n">
-        <v>0.04905550416868355</v>
+        <v>0.05046535858283922</v>
       </c>
       <c r="K164" t="n">
         <v>3.26834673032986</v>
       </c>
       <c r="L164" t="n">
-        <v>0.065361648778322</v>
+        <v>0.07588244561071619</v>
       </c>
       <c r="M164" t="n">
         <v>3.26834673032986</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1319582111002262</v>
+        <v>0.1305820011197497</v>
       </c>
       <c r="O164" t="n">
         <v>3.26834673032986</v>
@@ -5465,25 +5465,25 @@
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.04736063162793629</v>
+        <v>0.04994524224906963</v>
       </c>
       <c r="G165" t="n">
         <v>3.301360333666525</v>
       </c>
       <c r="J165" t="n">
-        <v>0.04736063162793629</v>
+        <v>0.04994524224906963</v>
       </c>
       <c r="K165" t="n">
         <v>3.301360333666525</v>
       </c>
       <c r="L165" t="n">
-        <v>0.06350991594308956</v>
+        <v>0.07470231810407779</v>
       </c>
       <c r="M165" t="n">
         <v>3.301360333666525</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1330764247652985</v>
+        <v>0.1254543386035266</v>
       </c>
       <c r="O165" t="n">
         <v>3.301360333666525</v>
@@ -5491,25 +5491,25 @@
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.04749869883830151</v>
+        <v>0.05057396915884404</v>
       </c>
       <c r="G166" t="n">
         <v>3.334373937003191</v>
       </c>
       <c r="J166" t="n">
-        <v>0.04749869883830151</v>
+        <v>0.05057396915884404</v>
       </c>
       <c r="K166" t="n">
         <v>3.334373937003191</v>
       </c>
       <c r="L166" t="n">
-        <v>0.0617335691237992</v>
+        <v>0.07258314420004891</v>
       </c>
       <c r="M166" t="n">
         <v>3.334373937003191</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1307596643363164</v>
+        <v>0.1259416807714648</v>
       </c>
       <c r="O166" t="n">
         <v>3.334373937003191</v>
@@ -5517,25 +5517,25 @@
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.04615173739053284</v>
+        <v>0.04742909284298707</v>
       </c>
       <c r="G167" t="n">
         <v>3.367387540339856</v>
       </c>
       <c r="J167" t="n">
-        <v>0.04615173739053284</v>
+        <v>0.04742909284298707</v>
       </c>
       <c r="K167" t="n">
         <v>3.367387540339856</v>
       </c>
       <c r="L167" t="n">
-        <v>0.06235989100760383</v>
+        <v>0.0746672716873996</v>
       </c>
       <c r="M167" t="n">
         <v>3.367387540339856</v>
       </c>
       <c r="N167" t="n">
-        <v>0.130576430621597</v>
+        <v>0.1240254530381225</v>
       </c>
       <c r="O167" t="n">
         <v>3.367387540339856</v>
@@ -5543,25 +5543,25 @@
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.04738041951798758</v>
+        <v>0.04849086022524382</v>
       </c>
       <c r="G168" t="n">
         <v>3.400401143676521</v>
       </c>
       <c r="J168" t="n">
-        <v>0.04738041951798758</v>
+        <v>0.04849086022524382</v>
       </c>
       <c r="K168" t="n">
         <v>3.400401143676521</v>
       </c>
       <c r="L168" t="n">
-        <v>0.05969627703933601</v>
+        <v>0.07082197608973362</v>
       </c>
       <c r="M168" t="n">
         <v>3.400401143676521</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1249056121220393</v>
+        <v>0.1250168950237949</v>
       </c>
       <c r="O168" t="n">
         <v>3.400401143676521</v>
@@ -5569,25 +5569,25 @@
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.04648475332726568</v>
+        <v>0.0470417133573959</v>
       </c>
       <c r="G169" t="n">
         <v>3.433414747013186</v>
       </c>
       <c r="J169" t="n">
-        <v>0.04648475332726568</v>
+        <v>0.0470417133573959</v>
       </c>
       <c r="K169" t="n">
         <v>3.433414747013186</v>
       </c>
       <c r="L169" t="n">
-        <v>0.06192228024715055</v>
+        <v>0.07160840049343349</v>
       </c>
       <c r="M169" t="n">
         <v>3.433414747013186</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1229364124015374</v>
+        <v>0.1261841690751093</v>
       </c>
       <c r="O169" t="n">
         <v>3.433414747013186</v>
@@ -5595,25 +5595,25 @@
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.04592163335060311</v>
+        <v>0.04592512267407859</v>
       </c>
       <c r="G170" t="n">
         <v>3.466428350349852</v>
       </c>
       <c r="J170" t="n">
-        <v>0.04592163335060311</v>
+        <v>0.04592512267407859</v>
       </c>
       <c r="K170" t="n">
         <v>3.466428350349852</v>
       </c>
       <c r="L170" t="n">
-        <v>0.05939463173753799</v>
+        <v>0.06987495314779338</v>
       </c>
       <c r="M170" t="n">
         <v>3.466428350349852</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1226253945326463</v>
+        <v>0.1191862036103047</v>
       </c>
       <c r="O170" t="n">
         <v>3.466428350349852</v>
@@ -5621,25 +5621,25 @@
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.04620323947738946</v>
+        <v>0.04637124656007359</v>
       </c>
       <c r="G171" t="n">
         <v>3.499441953686517</v>
       </c>
       <c r="J171" t="n">
-        <v>0.04620323947738946</v>
+        <v>0.04637124656007359</v>
       </c>
       <c r="K171" t="n">
         <v>3.499441953686517</v>
       </c>
       <c r="L171" t="n">
-        <v>0.06153421936769637</v>
+        <v>0.06815049745438226</v>
       </c>
       <c r="M171" t="n">
         <v>3.499441953686517</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1245297858174637</v>
+        <v>0.1186979457805524</v>
       </c>
       <c r="O171" t="n">
         <v>3.499441953686517</v>
@@ -5647,25 +5647,25 @@
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.04546047148317701</v>
+        <v>0.04627136635264487</v>
       </c>
       <c r="G172" t="n">
         <v>3.532455557023182</v>
       </c>
       <c r="J172" t="n">
-        <v>0.04546047148317701</v>
+        <v>0.04627136635264487</v>
       </c>
       <c r="K172" t="n">
         <v>3.532455557023182</v>
       </c>
       <c r="L172" t="n">
-        <v>0.06114450884119197</v>
+        <v>0.0705425584609041</v>
       </c>
       <c r="M172" t="n">
         <v>3.532455557023182</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1206845362046071</v>
+        <v>0.1203137319666309</v>
       </c>
       <c r="O172" t="n">
         <v>3.532455557023182</v>
@@ -5673,25 +5673,25 @@
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.04522373924617671</v>
+        <v>0.04514977365978496</v>
       </c>
       <c r="G173" t="n">
         <v>3.565469160359847</v>
       </c>
       <c r="J173" t="n">
-        <v>0.04522373924617671</v>
+        <v>0.04514977365978496</v>
       </c>
       <c r="K173" t="n">
         <v>3.565469160359847</v>
       </c>
       <c r="L173" t="n">
-        <v>0.06070037742445385</v>
+        <v>0.06977581638603125</v>
       </c>
       <c r="M173" t="n">
         <v>3.565469160359847</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1210696794725264</v>
+        <v>0.1161198581724201</v>
       </c>
       <c r="O173" t="n">
         <v>3.565469160359847</v>
@@ -5699,25 +5699,25 @@
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.04496572485725937</v>
+        <v>0.04536042572644654</v>
       </c>
       <c r="G174" t="n">
         <v>3.598482763696513</v>
       </c>
       <c r="J174" t="n">
-        <v>0.04496572485725937</v>
+        <v>0.04536042572644654</v>
       </c>
       <c r="K174" t="n">
         <v>3.598482763696513</v>
       </c>
       <c r="L174" t="n">
-        <v>0.05859499378345118</v>
+        <v>0.0695335956571248</v>
       </c>
       <c r="M174" t="n">
         <v>3.598482763696513</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1207952697043574</v>
+        <v>0.1158550461718857</v>
       </c>
       <c r="O174" t="n">
         <v>3.598482763696513</v>
@@ -5725,25 +5725,25 @@
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.04404387213221831</v>
+        <v>0.04485011865210941</v>
       </c>
       <c r="G175" t="n">
         <v>3.631496367033178</v>
       </c>
       <c r="J175" t="n">
-        <v>0.04404387213221831</v>
+        <v>0.04485011865210941</v>
       </c>
       <c r="K175" t="n">
         <v>3.631496367033178</v>
       </c>
       <c r="L175" t="n">
-        <v>0.06118037712809643</v>
+        <v>0.0687660366053947</v>
       </c>
       <c r="M175" t="n">
         <v>3.631496367033178</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1217250914785467</v>
+        <v>0.1186601910627341</v>
       </c>
       <c r="O175" t="n">
         <v>3.631496367033178</v>
@@ -5751,25 +5751,25 @@
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.04302565754031196</v>
+        <v>0.04597593247667901</v>
       </c>
       <c r="G176" t="n">
         <v>3.664509970369843</v>
       </c>
       <c r="J176" t="n">
-        <v>0.04302565754031196</v>
+        <v>0.04597593247667901</v>
       </c>
       <c r="K176" t="n">
         <v>3.664509970369843</v>
       </c>
       <c r="L176" t="n">
-        <v>0.06060566496903932</v>
+        <v>0.06968670536705619</v>
       </c>
       <c r="M176" t="n">
         <v>3.664509970369843</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1148835984471317</v>
+        <v>0.1167618964297703</v>
       </c>
       <c r="O176" t="n">
         <v>3.664509970369843</v>
@@ -5777,25 +5777,25 @@
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.04157527965213793</v>
+        <v>0.04619267916452072</v>
       </c>
       <c r="G177" t="n">
         <v>3.697523573706508</v>
       </c>
       <c r="J177" t="n">
-        <v>0.04157527965213793</v>
+        <v>0.04619267916452072</v>
       </c>
       <c r="K177" t="n">
         <v>3.697523573706508</v>
       </c>
       <c r="L177" t="n">
-        <v>0.05998734236237198</v>
+        <v>0.0677951416559943</v>
       </c>
       <c r="M177" t="n">
         <v>3.697523573706508</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1138514282860484</v>
+        <v>0.1102911339273754</v>
       </c>
       <c r="O177" t="n">
         <v>3.697523573706508</v>
@@ -5803,25 +5803,25 @@
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.04332924165580467</v>
+        <v>0.04412033581429597</v>
       </c>
       <c r="G178" t="n">
         <v>3.730537177043174</v>
       </c>
       <c r="J178" t="n">
-        <v>0.04332924165580467</v>
+        <v>0.04412033581429597</v>
       </c>
       <c r="K178" t="n">
         <v>3.730537177043174</v>
       </c>
       <c r="L178" t="n">
-        <v>0.05828497000583925</v>
+        <v>0.06563465993525108</v>
       </c>
       <c r="M178" t="n">
         <v>3.730537177043174</v>
       </c>
       <c r="N178" t="n">
-        <v>0.114578236111439</v>
+        <v>0.1091941974867807</v>
       </c>
       <c r="O178" t="n">
         <v>3.730537177043174</v>
@@ -5829,25 +5829,25 @@
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.0429975616762639</v>
+        <v>0.04560232487686166</v>
       </c>
       <c r="G179" t="n">
         <v>3.763550780379839</v>
       </c>
       <c r="J179" t="n">
-        <v>0.0429975616762639</v>
+        <v>0.04560232487686166</v>
       </c>
       <c r="K179" t="n">
         <v>3.763550780379839</v>
       </c>
       <c r="L179" t="n">
-        <v>0.06066213537098741</v>
+        <v>0.06684763693004488</v>
       </c>
       <c r="M179" t="n">
         <v>3.763550780379839</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1118875694603747</v>
+        <v>0.1101129761673293</v>
       </c>
       <c r="O179" t="n">
         <v>3.763550780379839</v>
@@ -5855,25 +5855,25 @@
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.04140905744302508</v>
+        <v>0.04537567917353515</v>
       </c>
       <c r="G180" t="n">
         <v>3.796564383716504</v>
       </c>
       <c r="J180" t="n">
-        <v>0.04140905744302508</v>
+        <v>0.04537567917353515</v>
       </c>
       <c r="K180" t="n">
         <v>3.796564383716504</v>
       </c>
       <c r="L180" t="n">
-        <v>0.0589966161809761</v>
+        <v>0.06775984250084099</v>
       </c>
       <c r="M180" t="n">
         <v>3.796564383716504</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1105695586725329</v>
+        <v>0.1071319538589237</v>
       </c>
       <c r="O180" t="n">
         <v>3.796564383716504</v>
@@ -5881,25 +5881,25 @@
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.04214252881945996</v>
+        <v>0.04409189274905278</v>
       </c>
       <c r="G181" t="n">
         <v>3.829577987053169</v>
       </c>
       <c r="J181" t="n">
-        <v>0.04214252881945996</v>
+        <v>0.04409189274905278</v>
       </c>
       <c r="K181" t="n">
         <v>3.829577987053169</v>
       </c>
       <c r="L181" t="n">
-        <v>0.06017638409054664</v>
+        <v>0.06629232992709543</v>
       </c>
       <c r="M181" t="n">
         <v>3.829577987053169</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1117269652335942</v>
+        <v>0.1046630717975149</v>
       </c>
       <c r="O181" t="n">
         <v>3.829577987053169</v>
@@ -5907,25 +5907,25 @@
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.04001376577213335</v>
+        <v>0.04312409354909775</v>
       </c>
       <c r="G182" t="n">
         <v>3.862591590389835</v>
       </c>
       <c r="J182" t="n">
-        <v>0.04001376577213335</v>
+        <v>0.04312409354909775</v>
       </c>
       <c r="K182" t="n">
         <v>3.862591590389835</v>
       </c>
       <c r="L182" t="n">
-        <v>0.05943000822956384</v>
+        <v>0.06646441846763318</v>
       </c>
       <c r="M182" t="n">
         <v>3.862591590389835</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1134789036634007</v>
+        <v>0.1054932194752175</v>
       </c>
       <c r="O182" t="n">
         <v>3.862591590389835</v>
@@ -5933,25 +5933,25 @@
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.04001778732825009</v>
+        <v>0.04292721103578761</v>
       </c>
       <c r="G183" t="n">
         <v>3.8956051937265</v>
       </c>
       <c r="J183" t="n">
-        <v>0.04001778732825009</v>
+        <v>0.04292721103578761</v>
       </c>
       <c r="K183" t="n">
         <v>3.8956051937265</v>
       </c>
       <c r="L183" t="n">
-        <v>0.05866221932934197</v>
+        <v>0.06589335661412056</v>
       </c>
       <c r="M183" t="n">
         <v>3.8956051937265</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1133963418992832</v>
+        <v>0.1024237184167128</v>
       </c>
       <c r="O183" t="n">
         <v>3.8956051937265</v>
@@ -5959,25 +5959,25 @@
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03946678600648672</v>
+        <v>0.0434324886008232</v>
       </c>
       <c r="G184" t="n">
         <v>3.928618797063165</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03946678600648672</v>
+        <v>0.0434324886008232</v>
       </c>
       <c r="K184" t="n">
         <v>3.928618797063165</v>
       </c>
       <c r="L184" t="n">
-        <v>0.05935739383205393</v>
+        <v>0.06616686620878402</v>
       </c>
       <c r="M184" t="n">
         <v>3.928618797063165</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1070679541828441</v>
+        <v>0.1025179242121329</v>
       </c>
       <c r="O184" t="n">
         <v>3.928618797063165</v>
@@ -5985,25 +5985,25 @@
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03985435927369457</v>
+        <v>0.04451197609201784</v>
       </c>
       <c r="G185" t="n">
         <v>3.96163240039983</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03985435927369457</v>
+        <v>0.04451197609201784</v>
       </c>
       <c r="K185" t="n">
         <v>3.96163240039983</v>
       </c>
       <c r="L185" t="n">
-        <v>0.05809238775008086</v>
+        <v>0.06530812835503308</v>
       </c>
       <c r="M185" t="n">
         <v>3.96163240039983</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1113734463539805</v>
+        <v>0.09984154190379034</v>
       </c>
       <c r="O185" t="n">
         <v>3.96163240039983</v>
@@ -6011,25 +6011,25 @@
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03982982661718033</v>
+        <v>0.04311612830571403</v>
       </c>
       <c r="G186" t="n">
         <v>3.994646003736496</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03982982661718033</v>
+        <v>0.04311612830571403</v>
       </c>
       <c r="K186" t="n">
         <v>3.994646003736496</v>
       </c>
       <c r="L186" t="n">
-        <v>0.05785414340346551</v>
+        <v>0.06578489599390797</v>
       </c>
       <c r="M186" t="n">
         <v>3.994646003736496</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1072329845604645</v>
+        <v>0.09553153966990037</v>
       </c>
       <c r="O186" t="n">
         <v>3.994646003736496</v>
@@ -6037,25 +6037,25 @@
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.04021041180507927</v>
+        <v>0.04252584753282222</v>
       </c>
       <c r="G187" t="n">
         <v>4.027659607073161</v>
       </c>
       <c r="J187" t="n">
-        <v>0.04021041180507927</v>
+        <v>0.04252584753282222</v>
       </c>
       <c r="K187" t="n">
         <v>4.027659607073161</v>
       </c>
       <c r="L187" t="n">
-        <v>0.05946947810678565</v>
+        <v>0.06266648961898995</v>
       </c>
       <c r="M187" t="n">
         <v>4.027659607073161</v>
       </c>
       <c r="N187" t="n">
-        <v>0.10307010282828</v>
+        <v>0.09412146983739991</v>
       </c>
       <c r="O187" t="n">
         <v>4.027659607073161</v>
@@ -6063,25 +6063,25 @@
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03903681239896818</v>
+        <v>0.04206600982176939</v>
       </c>
       <c r="G188" t="n">
         <v>4.060673210409826</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03903681239896818</v>
+        <v>0.04206600982176939</v>
       </c>
       <c r="K188" t="n">
         <v>4.060673210409826</v>
       </c>
       <c r="L188" t="n">
-        <v>0.05788638231413536</v>
+        <v>0.06551176305185996</v>
       </c>
       <c r="M188" t="n">
         <v>4.060673210409826</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1037913350826176</v>
+        <v>0.09502508098850462</v>
       </c>
       <c r="O188" t="n">
         <v>4.060673210409826</v>
@@ -6089,25 +6089,25 @@
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.04048834664136102</v>
+        <v>0.04316067375060745</v>
       </c>
       <c r="G189" t="n">
         <v>4.093686813746491</v>
       </c>
       <c r="J189" t="n">
-        <v>0.04048834664136102</v>
+        <v>0.04316067375060745</v>
       </c>
       <c r="K189" t="n">
         <v>4.093686813746491</v>
       </c>
       <c r="L189" t="n">
-        <v>0.05838824977121939</v>
+        <v>0.06254042367515068</v>
       </c>
       <c r="M189" t="n">
         <v>4.093686813746491</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1033453386604458</v>
+        <v>0.09473559746591467</v>
       </c>
       <c r="O189" t="n">
         <v>4.093686813746491</v>
@@ -6115,25 +6115,25 @@
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03908691995730468</v>
+        <v>0.04244390277839254</v>
       </c>
       <c r="G190" t="n">
         <v>4.126700417083157</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03908691995730468</v>
+        <v>0.04244390277839254</v>
       </c>
       <c r="K190" t="n">
         <v>4.126700417083157</v>
       </c>
       <c r="L190" t="n">
-        <v>0.05877080559777097</v>
+        <v>0.06342478022280941</v>
       </c>
       <c r="M190" t="n">
         <v>4.126700417083157</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1046882747159735</v>
+        <v>0.09242679602709468</v>
       </c>
       <c r="O190" t="n">
         <v>4.126700417083157</v>
@@ -6141,25 +6141,25 @@
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03841638133988787</v>
+        <v>0.04243769065141241</v>
       </c>
       <c r="G191" t="n">
         <v>4.159714020419822</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03841638133988787</v>
+        <v>0.04243769065141241</v>
       </c>
       <c r="K191" t="n">
         <v>4.159714020419822</v>
       </c>
       <c r="L191" t="n">
-        <v>0.06024776504048109</v>
+        <v>0.06422334182376052</v>
       </c>
       <c r="M191" t="n">
         <v>4.159714020419822</v>
       </c>
       <c r="N191" t="n">
-        <v>0.09977691606515282</v>
+        <v>0.09172743355208238</v>
       </c>
       <c r="O191" t="n">
         <v>4.159714020419822</v>
@@ -6167,25 +6167,25 @@
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03759851816130433</v>
+        <v>0.0428041498489818</v>
       </c>
       <c r="G192" t="n">
         <v>4.192727623756487</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03759851816130433</v>
+        <v>0.0428041498489818</v>
       </c>
       <c r="K192" t="n">
         <v>4.192727623756487</v>
       </c>
       <c r="L192" t="n">
-        <v>0.05916541932436041</v>
+        <v>0.06431582837473195</v>
       </c>
       <c r="M192" t="n">
         <v>4.192727623756487</v>
       </c>
       <c r="N192" t="n">
-        <v>0.101008166514522</v>
+        <v>0.08795864086682191</v>
       </c>
       <c r="O192" t="n">
         <v>4.192727623756487</v>
@@ -6193,25 +6193,25 @@
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03811686916124012</v>
+        <v>0.04164913317368971</v>
       </c>
       <c r="G193" t="n">
         <v>4.225741227093152</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03811686916124012</v>
+        <v>0.04164913317368971</v>
       </c>
       <c r="K193" t="n">
         <v>4.225741227093152</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06075901248576471</v>
+        <v>0.06405503224953937</v>
       </c>
       <c r="M193" t="n">
         <v>4.225741227093152</v>
       </c>
       <c r="N193" t="n">
-        <v>0.09848202275301621</v>
+        <v>0.08571300546372751</v>
       </c>
       <c r="O193" t="n">
         <v>4.225741227093152</v>
@@ -6219,25 +6219,25 @@
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03745715275624742</v>
+        <v>0.04192935834072459</v>
       </c>
       <c r="G194" t="n">
         <v>4.258754830429818</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03745715275624742</v>
+        <v>0.04192935834072459</v>
       </c>
       <c r="K194" t="n">
         <v>4.258754830429818</v>
       </c>
       <c r="L194" t="n">
-        <v>0.05884300774526371</v>
+        <v>0.0637440283847521</v>
       </c>
       <c r="M194" t="n">
         <v>4.258754830429818</v>
       </c>
       <c r="N194" t="n">
-        <v>0.09965899965505819</v>
+        <v>0.08299545761346795</v>
       </c>
       <c r="O194" t="n">
         <v>4.258754830429818</v>
@@ -6245,25 +6245,25 @@
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03753977569079834</v>
+        <v>0.04047481331898643</v>
       </c>
       <c r="G195" t="n">
         <v>4.291768433766483</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03753977569079834</v>
+        <v>0.04047481331898643</v>
       </c>
       <c r="K195" t="n">
         <v>4.291768433766483</v>
       </c>
       <c r="L195" t="n">
-        <v>0.05919120353625554</v>
+        <v>0.06302371428186279</v>
       </c>
       <c r="M195" t="n">
         <v>4.291768433766483</v>
       </c>
       <c r="N195" t="n">
-        <v>0.0991878365522687</v>
+        <v>0.08163005313075046</v>
       </c>
       <c r="O195" t="n">
         <v>4.291768433766483</v>
@@ -6271,25 +6271,25 @@
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03806923563903077</v>
+        <v>0.0408640146201716</v>
       </c>
       <c r="G196" t="n">
         <v>4.324782037103148</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03806923563903077</v>
+        <v>0.0408640146201716</v>
       </c>
       <c r="K196" t="n">
         <v>4.324782037103148</v>
       </c>
       <c r="L196" t="n">
-        <v>0.05780881608036114</v>
+        <v>0.06300396132798849</v>
       </c>
       <c r="M196" t="n">
         <v>4.324782037103148</v>
       </c>
       <c r="N196" t="n">
-        <v>0.09899080215302533</v>
+        <v>0.08374674319595828</v>
       </c>
       <c r="O196" t="n">
         <v>4.324782037103148</v>
@@ -6297,25 +6297,25 @@
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03657484016925888</v>
+        <v>0.04026673295670224</v>
       </c>
       <c r="G197" t="n">
         <v>4.357795640439813</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03657484016925888</v>
+        <v>0.04026673295670224</v>
       </c>
       <c r="K197" t="n">
         <v>4.357795640439813</v>
       </c>
       <c r="L197" t="n">
-        <v>0.06089127523251981</v>
+        <v>0.06300588313625206</v>
       </c>
       <c r="M197" t="n">
         <v>4.357795640439813</v>
       </c>
       <c r="N197" t="n">
-        <v>0.09674769452887723</v>
+        <v>0.08124504257725376</v>
       </c>
       <c r="O197" t="n">
         <v>4.357795640439813</v>
@@ -6323,25 +6323,25 @@
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03680017112435553</v>
+        <v>0.04153098544273429</v>
       </c>
       <c r="G198" t="n">
         <v>4.390809243776479</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03680017112435553</v>
+        <v>0.04153098544273429</v>
       </c>
       <c r="K198" t="n">
         <v>4.390809243776479</v>
       </c>
       <c r="L198" t="n">
-        <v>0.05837159011627512</v>
+        <v>0.06155286658505927</v>
       </c>
       <c r="M198" t="n">
         <v>4.390809243776479</v>
       </c>
       <c r="N198" t="n">
-        <v>0.09563505376119029</v>
+        <v>0.08078275626130774</v>
       </c>
       <c r="O198" t="n">
         <v>4.390809243776479</v>
@@ -6349,25 +6349,25 @@
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03697043057362377</v>
+        <v>0.04086733278079816</v>
       </c>
       <c r="G199" t="n">
         <v>4.423822847113144</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03697043057362377</v>
+        <v>0.04086733278079816</v>
       </c>
       <c r="K199" t="n">
         <v>4.423822847113144</v>
       </c>
       <c r="L199" t="n">
-        <v>0.05897252190240967</v>
+        <v>0.06126086680588067</v>
       </c>
       <c r="M199" t="n">
         <v>4.423822847113144</v>
       </c>
       <c r="N199" t="n">
-        <v>0.09291620726048511</v>
+        <v>0.07814842508140334</v>
       </c>
       <c r="O199" t="n">
         <v>4.423822847113144</v>
@@ -6375,25 +6375,25 @@
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03657745842753325</v>
+        <v>0.04026608942658729</v>
       </c>
       <c r="G200" t="n">
         <v>4.456836450449809</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03657745842753325</v>
+        <v>0.04026608942658729</v>
       </c>
       <c r="K200" t="n">
         <v>4.456836450449809</v>
       </c>
       <c r="L200" t="n">
-        <v>0.05797508241392031</v>
+        <v>0.06167257250840359</v>
       </c>
       <c r="M200" t="n">
         <v>4.456836450449809</v>
       </c>
       <c r="N200" t="n">
-        <v>0.09392205876076136</v>
+        <v>0.07779322418987078</v>
       </c>
       <c r="O200" t="n">
         <v>4.456836450449809</v>
@@ -6401,25 +6401,25 @@
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03590531957421578</v>
+        <v>0.03907147650090914</v>
       </c>
       <c r="G201" t="n">
         <v>4.489850053786475</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03590531957421578</v>
+        <v>0.03907147650090914</v>
       </c>
       <c r="K201" t="n">
         <v>4.489850053786475</v>
       </c>
       <c r="L201" t="n">
-        <v>0.05896709609946107</v>
+        <v>0.06199866942788555</v>
       </c>
       <c r="M201" t="n">
         <v>4.489850053786475</v>
       </c>
       <c r="N201" t="n">
-        <v>0.09301531719061042</v>
+        <v>0.07609658904670795</v>
       </c>
       <c r="O201" t="n">
         <v>4.489850053786475</v>
@@ -6427,25 +6427,25 @@
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.0359807734484151</v>
+        <v>0.0411305859956765</v>
       </c>
       <c r="G202" t="n">
         <v>4.52286365712314</v>
       </c>
       <c r="J202" t="n">
-        <v>0.0359807734484151</v>
+        <v>0.0411305859956765</v>
       </c>
       <c r="K202" t="n">
         <v>4.52286365712314</v>
       </c>
       <c r="L202" t="n">
-        <v>0.05974741135834127</v>
+        <v>0.05905435513137156</v>
       </c>
       <c r="M202" t="n">
         <v>4.52286365712314</v>
       </c>
       <c r="N202" t="n">
-        <v>0.09306923188955948</v>
+        <v>0.07508116417768522</v>
       </c>
       <c r="O202" t="n">
         <v>4.52286365712314</v>
@@ -6453,25 +6453,25 @@
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03580782657357045</v>
+        <v>0.03997149021569382</v>
       </c>
       <c r="G203" t="n">
         <v>4.555877260459805</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03580782657357045</v>
+        <v>0.03997149021569382</v>
       </c>
       <c r="K203" t="n">
         <v>4.555877260459805</v>
       </c>
       <c r="L203" t="n">
-        <v>0.06039887384712347</v>
+        <v>0.06132719637095728</v>
       </c>
       <c r="M203" t="n">
         <v>4.555877260459805</v>
       </c>
       <c r="N203" t="n">
-        <v>0.08887137656275776</v>
+        <v>0.07766413557404481</v>
       </c>
       <c r="O203" t="n">
         <v>4.555877260459805</v>
@@ -6479,25 +6479,25 @@
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03706107554231717</v>
+        <v>0.04066254883765024</v>
       </c>
       <c r="G204" t="n">
         <v>4.58889086379647</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03706107554231717</v>
+        <v>0.04066254883765024</v>
       </c>
       <c r="K204" t="n">
         <v>4.58889086379647</v>
       </c>
       <c r="L204" t="n">
-        <v>0.05955518122228553</v>
+        <v>0.06014119470152227</v>
       </c>
       <c r="M204" t="n">
         <v>4.58889086379647</v>
       </c>
       <c r="N204" t="n">
-        <v>0.09031670955132154</v>
+        <v>0.07627799322766118</v>
       </c>
       <c r="O204" t="n">
         <v>4.58889086379647</v>
@@ -6505,25 +6505,25 @@
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.0357426685134942</v>
+        <v>0.04006575120258962</v>
       </c>
       <c r="G205" t="n">
         <v>4.621904467133136</v>
       </c>
       <c r="J205" t="n">
-        <v>0.0357426685134942</v>
+        <v>0.04006575120258962</v>
       </c>
       <c r="K205" t="n">
         <v>4.621904467133136</v>
       </c>
       <c r="L205" t="n">
-        <v>0.05864962660678645</v>
+        <v>0.06130462042066055</v>
       </c>
       <c r="M205" t="n">
         <v>4.621904467133136</v>
       </c>
       <c r="N205" t="n">
-        <v>0.08799972889698061</v>
+        <v>0.07770375839590603</v>
       </c>
       <c r="O205" t="n">
         <v>4.621904467133136</v>
@@ -6531,25 +6531,25 @@
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.0349395433541164</v>
+        <v>0.03906390646075757</v>
       </c>
       <c r="G206" t="n">
         <v>4.654918070469801</v>
       </c>
       <c r="J206" t="n">
-        <v>0.0349395433541164</v>
+        <v>0.03906390646075757</v>
       </c>
       <c r="K206" t="n">
         <v>4.654918070469801</v>
       </c>
       <c r="L206" t="n">
-        <v>0.05891018891377565</v>
+        <v>0.06116372142862527</v>
       </c>
       <c r="M206" t="n">
         <v>4.654918070469801</v>
       </c>
       <c r="N206" t="n">
-        <v>0.08583695744128704</v>
+        <v>0.07527235818636559</v>
       </c>
       <c r="O206" t="n">
         <v>4.654918070469801</v>
@@ -6557,25 +6557,25 @@
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03552655356564434</v>
+        <v>0.03855199488548853</v>
       </c>
       <c r="G207" t="n">
         <v>4.687931673806466</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03552655356564434</v>
+        <v>0.03855199488548853</v>
       </c>
       <c r="K207" t="n">
         <v>4.687931673806466</v>
       </c>
       <c r="L207" t="n">
-        <v>0.05901554278093573</v>
+        <v>0.05852233228894325</v>
       </c>
       <c r="M207" t="n">
         <v>4.687931673806466</v>
       </c>
       <c r="N207" t="n">
-        <v>0.08683003125553275</v>
+        <v>0.07675350077108443</v>
       </c>
       <c r="O207" t="n">
         <v>4.687931673806466</v>
@@ -6583,25 +6583,25 @@
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.0352479428212203</v>
+        <v>0.03768062551735953</v>
       </c>
       <c r="G208" t="n">
         <v>4.720945277143131</v>
       </c>
       <c r="J208" t="n">
-        <v>0.0352479428212203</v>
+        <v>0.03768062551735953</v>
       </c>
       <c r="K208" t="n">
         <v>4.720945277143131</v>
       </c>
       <c r="L208" t="n">
-        <v>0.05735345060301087</v>
+        <v>0.06001448807243558</v>
       </c>
       <c r="M208" t="n">
         <v>4.720945277143131</v>
       </c>
       <c r="N208" t="n">
-        <v>0.08311860498682262</v>
+        <v>0.07379881744988818</v>
       </c>
       <c r="O208" t="n">
         <v>4.720945277143131</v>
@@ -6609,25 +6609,25 @@
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03600268278610202</v>
+        <v>0.03871045492027061</v>
       </c>
       <c r="G209" t="n">
         <v>4.753958880479797</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03600268278610202</v>
+        <v>0.03871045492027061</v>
       </c>
       <c r="K209" t="n">
         <v>4.753958880479797</v>
       </c>
       <c r="L209" t="n">
-        <v>0.05765867476973744</v>
+        <v>0.05792988476593132</v>
       </c>
       <c r="M209" t="n">
         <v>4.753958880479797</v>
       </c>
       <c r="N209" t="n">
-        <v>0.08617687873416391</v>
+        <v>0.0768294680850084</v>
       </c>
       <c r="O209" t="n">
         <v>4.753958880479797</v>
@@ -6635,25 +6635,25 @@
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.03491004367713257</v>
+        <v>0.03780058805866464</v>
       </c>
       <c r="G210" t="n">
         <v>4.786972483816462</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03491004367713257</v>
+        <v>0.03780058805866464</v>
       </c>
       <c r="K210" t="n">
         <v>4.786972483816462</v>
       </c>
       <c r="L210" t="n">
-        <v>0.05830176028637386</v>
+        <v>0.06020372578374075</v>
       </c>
       <c r="M210" t="n">
         <v>4.786972483816462</v>
       </c>
       <c r="N210" t="n">
-        <v>0.08531756315919826</v>
+        <v>0.07494577222144788</v>
       </c>
       <c r="O210" t="n">
         <v>4.786972483816462</v>
@@ -6661,25 +6661,25 @@
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.03427127824600013</v>
+        <v>0.0384399383718703</v>
       </c>
       <c r="G211" t="n">
         <v>4.819986087153127</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03427127824600013</v>
+        <v>0.0384399383718703</v>
       </c>
       <c r="K211" t="n">
         <v>4.819986087153127</v>
       </c>
       <c r="L211" t="n">
-        <v>0.06021517716782133</v>
+        <v>0.05793345580754045</v>
       </c>
       <c r="M211" t="n">
         <v>4.819986087153127</v>
       </c>
       <c r="N211" t="n">
-        <v>0.08203774359501065</v>
+        <v>0.07821949455739405</v>
       </c>
       <c r="O211" t="n">
         <v>4.819986087153127</v>
@@ -6687,25 +6687,25 @@
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03524046458801373</v>
+        <v>0.03665965836196679</v>
       </c>
       <c r="G212" t="n">
         <v>4.852999690489792</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03524046458801373</v>
+        <v>0.03665965836196679</v>
       </c>
       <c r="K212" t="n">
         <v>4.852999690489792</v>
       </c>
       <c r="L212" t="n">
-        <v>0.05780867417552236</v>
+        <v>0.05690707740164191</v>
       </c>
       <c r="M212" t="n">
         <v>4.852999690489792</v>
       </c>
       <c r="N212" t="n">
-        <v>0.08074002277619664</v>
+        <v>0.07806001397597338</v>
       </c>
       <c r="O212" t="n">
         <v>4.852999690489792</v>
@@ -6713,25 +6713,25 @@
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.03373063384666874</v>
+        <v>0.03808105350499704</v>
       </c>
       <c r="G213" t="n">
         <v>4.886013293826458</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03373063384666874</v>
+        <v>0.03808105350499704</v>
       </c>
       <c r="K213" t="n">
         <v>4.886013293826458</v>
       </c>
       <c r="L213" t="n">
-        <v>0.05898935707871692</v>
+        <v>0.05650824017923915</v>
       </c>
       <c r="M213" t="n">
         <v>4.886013293826458</v>
       </c>
       <c r="N213" t="n">
-        <v>0.08156783543880257</v>
+        <v>0.07659409799491838</v>
       </c>
       <c r="O213" t="n">
         <v>4.886013293826458</v>
@@ -6739,25 +6739,25 @@
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.03403957992158807</v>
+        <v>0.03720322698161948</v>
       </c>
       <c r="G214" t="n">
         <v>4.919026897163123</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03403957992158807</v>
+        <v>0.03720322698161948</v>
       </c>
       <c r="K214" t="n">
         <v>4.919026897163123</v>
       </c>
       <c r="L214" t="n">
-        <v>0.05944850220648164</v>
+        <v>0.05756269359042795</v>
       </c>
       <c r="M214" t="n">
         <v>4.919026897163123</v>
       </c>
       <c r="N214" t="n">
-        <v>0.07941095411454277</v>
+        <v>0.0755307580599356</v>
       </c>
       <c r="O214" t="n">
         <v>4.919026897163123</v>
@@ -6765,25 +6765,25 @@
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.03463372083313213</v>
+        <v>0.03736726058515608</v>
       </c>
       <c r="G215" t="n">
         <v>4.952040500499788</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03463372083313213</v>
+        <v>0.03736726058515608</v>
       </c>
       <c r="K215" t="n">
         <v>4.952040500499788</v>
       </c>
       <c r="L215" t="n">
-        <v>0.05764722070350527</v>
+        <v>0.05621349905695792</v>
       </c>
       <c r="M215" t="n">
         <v>4.952040500499788</v>
       </c>
       <c r="N215" t="n">
-        <v>0.08117329317062279</v>
+        <v>0.07508267300046781</v>
       </c>
       <c r="O215" t="n">
         <v>4.952040500499788</v>
@@ -6791,25 +6791,25 @@
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.0340214756905611</v>
+        <v>0.03613146226266123</v>
       </c>
       <c r="G216" t="n">
         <v>4.985054103836453</v>
       </c>
       <c r="J216" t="n">
-        <v>0.0340214756905611</v>
+        <v>0.03613146226266123</v>
       </c>
       <c r="K216" t="n">
         <v>4.985054103836453</v>
       </c>
       <c r="L216" t="n">
-        <v>0.05583017363430548</v>
+        <v>0.05667005333551365</v>
       </c>
       <c r="M216" t="n">
         <v>4.985054103836453</v>
       </c>
       <c r="N216" t="n">
-        <v>0.0815167477489314</v>
+        <v>0.07665503566773713</v>
       </c>
       <c r="O216" t="n">
         <v>4.985054103836453</v>
@@ -6817,25 +6817,25 @@
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.03452423648027998</v>
+        <v>0.03745317097820421</v>
       </c>
       <c r="G217" t="n">
         <v>5.018067707173119</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03452423648027998</v>
+        <v>0.03745317097820421</v>
       </c>
       <c r="K217" t="n">
         <v>5.018067707173119</v>
       </c>
       <c r="L217" t="n">
-        <v>0.05640683172463303</v>
+        <v>0.05599093632782699</v>
       </c>
       <c r="M217" t="n">
         <v>5.018067707173119</v>
       </c>
       <c r="N217" t="n">
-        <v>0.07752999399118098</v>
+        <v>0.07654118524172604</v>
       </c>
       <c r="O217" t="n">
         <v>5.018067707173119</v>
@@ -6843,25 +6843,25 @@
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.03358537788881295</v>
+        <v>0.03529495183649192</v>
       </c>
       <c r="G218" t="n">
         <v>5.051081310509784</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03358537788881295</v>
+        <v>0.03529495183649192</v>
       </c>
       <c r="K218" t="n">
         <v>5.051081310509784</v>
       </c>
       <c r="L218" t="n">
-        <v>0.0569883144718367</v>
+        <v>0.05695225018301996</v>
       </c>
       <c r="M218" t="n">
         <v>5.051081310509784</v>
       </c>
       <c r="N218" t="n">
-        <v>0.0758430211601063</v>
+        <v>0.07781735238587593</v>
       </c>
       <c r="O218" t="n">
         <v>5.051081310509784</v>
@@ -6869,25 +6869,25 @@
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.03455042346876865</v>
+        <v>0.03695834006789891</v>
       </c>
       <c r="G219" t="n">
         <v>5.08409491384645</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03455042346876865</v>
+        <v>0.03695834006789891</v>
       </c>
       <c r="K219" t="n">
         <v>5.08409491384645</v>
       </c>
       <c r="L219" t="n">
-        <v>0.05765302150539536</v>
+        <v>0.05511270899815038</v>
       </c>
       <c r="M219" t="n">
         <v>5.08409491384645</v>
       </c>
       <c r="N219" t="n">
-        <v>0.076338953932283</v>
+        <v>0.07522735240206245</v>
       </c>
       <c r="O219" t="n">
         <v>5.08409491384645</v>
@@ -6895,25 +6895,25 @@
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.03432807217849763</v>
+        <v>0.0350712478004952</v>
       </c>
       <c r="G220" t="n">
         <v>5.117108517183114</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03432807217849763</v>
+        <v>0.0350712478004952</v>
       </c>
       <c r="K220" t="n">
         <v>5.117108517183114</v>
       </c>
       <c r="L220" t="n">
-        <v>0.05654545954678487</v>
+        <v>0.05598576952876812</v>
       </c>
       <c r="M220" t="n">
         <v>5.117108517183114</v>
       </c>
       <c r="N220" t="n">
-        <v>0.07440134421347132</v>
+        <v>0.07675421299700728</v>
       </c>
       <c r="O220" t="n">
         <v>5.117108517183114</v>
@@ -6921,25 +6921,25 @@
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.03272748569273173</v>
+        <v>0.03511645129183184</v>
       </c>
       <c r="G221" t="n">
         <v>5.15012212051978</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03272748569273173</v>
+        <v>0.03511645129183184</v>
       </c>
       <c r="K221" t="n">
         <v>5.15012212051978</v>
       </c>
       <c r="L221" t="n">
-        <v>0.05618164572141953</v>
+        <v>0.05623264094092598</v>
       </c>
       <c r="M221" t="n">
         <v>5.15012212051978</v>
       </c>
       <c r="N221" t="n">
-        <v>0.07603278802232584</v>
+        <v>0.07810639790830476</v>
       </c>
       <c r="O221" t="n">
         <v>5.15012212051978</v>
@@ -6947,25 +6947,25 @@
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.03398917675510971</v>
+        <v>0.0349459816374739</v>
       </c>
       <c r="G222" t="n">
         <v>5.183135723856445</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03398917675510971</v>
+        <v>0.0349459816374739</v>
       </c>
       <c r="K222" t="n">
         <v>5.183135723856445</v>
       </c>
       <c r="L222" t="n">
-        <v>0.05486197049226985</v>
+        <v>0.05612966821960434</v>
       </c>
       <c r="M222" t="n">
         <v>5.183135723856445</v>
       </c>
       <c r="N222" t="n">
-        <v>0.07576668325613908</v>
+        <v>0.07569873841146164</v>
       </c>
       <c r="O222" t="n">
         <v>5.183135723856445</v>
@@ -6973,25 +6973,25 @@
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.03343140391739866</v>
+        <v>0.03476735123868024</v>
       </c>
       <c r="G223" t="n">
         <v>5.21614932719311</v>
       </c>
       <c r="J223" t="n">
-        <v>0.03343140391739866</v>
+        <v>0.03476735123868024</v>
       </c>
       <c r="K223" t="n">
         <v>5.21614932719311</v>
       </c>
       <c r="L223" t="n">
-        <v>0.05699221632739814</v>
+        <v>0.054380938996305</v>
       </c>
       <c r="M223" t="n">
         <v>5.21614932719311</v>
       </c>
       <c r="N223" t="n">
-        <v>0.07589308416761287</v>
+        <v>0.07393672495259708</v>
       </c>
       <c r="O223" t="n">
         <v>5.21614932719311</v>
@@ -6999,25 +6999,25 @@
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.03336679897929901</v>
+        <v>0.03542998819432325</v>
       </c>
       <c r="G224" t="n">
         <v>5.249162930529775</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03336679897929901</v>
+        <v>0.03542998819432325</v>
       </c>
       <c r="K224" t="n">
         <v>5.249162930529775</v>
       </c>
       <c r="L224" t="n">
-        <v>0.05354547252489462</v>
+        <v>0.05603884826908617</v>
       </c>
       <c r="M224" t="n">
         <v>5.249162930529775</v>
       </c>
       <c r="N224" t="n">
-        <v>0.07395590489301158</v>
+        <v>0.07769682746649634</v>
       </c>
       <c r="O224" t="n">
         <v>5.249162930529775</v>
@@ -7025,25 +7025,25 @@
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.03282062685787635</v>
+        <v>0.03391947658877834</v>
       </c>
       <c r="G225" t="n">
         <v>5.282176533866441</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03282062685787635</v>
+        <v>0.03391947658877834</v>
       </c>
       <c r="K225" t="n">
         <v>5.282176533866441</v>
       </c>
       <c r="L225" t="n">
-        <v>0.0551537846424142</v>
+        <v>0.05626182691516772</v>
       </c>
       <c r="M225" t="n">
         <v>5.282176533866441</v>
       </c>
       <c r="N225" t="n">
-        <v>0.07354065108462604</v>
+        <v>0.07790975542383677</v>
       </c>
       <c r="O225" t="n">
         <v>5.282176533866441</v>
@@ -7051,25 +7051,25 @@
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.03338413212445093</v>
+        <v>0.03483961585315475</v>
       </c>
       <c r="G226" t="n">
         <v>5.315190137203106</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03338413212445093</v>
+        <v>0.03483961585315475</v>
       </c>
       <c r="K226" t="n">
         <v>5.315190137203106</v>
       </c>
       <c r="L226" t="n">
-        <v>0.05334851496582142</v>
+        <v>0.05566331202132017</v>
       </c>
       <c r="M226" t="n">
         <v>5.315190137203106</v>
       </c>
       <c r="N226" t="n">
-        <v>0.07212583002663643</v>
+        <v>0.07787964562187645</v>
       </c>
       <c r="O226" t="n">
         <v>5.315190137203106</v>
@@ -7077,25 +7077,25 @@
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.03232312546445121</v>
+        <v>0.03403877819369826</v>
       </c>
       <c r="G227" t="n">
         <v>5.348203740539772</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03232312546445121</v>
+        <v>0.03403877819369826</v>
       </c>
       <c r="K227" t="n">
         <v>5.348203740539772</v>
       </c>
       <c r="L227" t="n">
-        <v>0.05361576131437579</v>
+        <v>0.05664471514061144</v>
       </c>
       <c r="M227" t="n">
         <v>5.348203740539772</v>
       </c>
       <c r="N227" t="n">
-        <v>0.07221029123940695</v>
+        <v>0.07562398766127724</v>
       </c>
       <c r="O227" t="n">
         <v>5.348203740539772</v>
@@ -7103,25 +7103,25 @@
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.03187443484594065</v>
+        <v>0.03449130375927335</v>
       </c>
       <c r="G228" t="n">
         <v>5.381217343876436</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03187443484594065</v>
+        <v>0.03449130375927335</v>
       </c>
       <c r="K228" t="n">
         <v>5.381217343876436</v>
       </c>
       <c r="L228" t="n">
-        <v>0.0527274177316496</v>
+        <v>0.05491578205650915</v>
       </c>
       <c r="M228" t="n">
         <v>5.381217343876436</v>
       </c>
       <c r="N228" t="n">
-        <v>0.06998187110535148</v>
+        <v>0.07418109558092933</v>
       </c>
       <c r="O228" t="n">
         <v>5.381217343876436</v>
@@ -7129,25 +7129,25 @@
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.03235587887489377</v>
+        <v>0.03454046424430855</v>
       </c>
       <c r="G229" t="n">
         <v>5.414230947213102</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03235587887489377</v>
+        <v>0.03454046424430855</v>
       </c>
       <c r="K229" t="n">
         <v>5.414230947213102</v>
       </c>
       <c r="L229" t="n">
-        <v>0.05259544635210223</v>
+        <v>0.05505497187509228</v>
       </c>
       <c r="M229" t="n">
         <v>5.414230947213102</v>
       </c>
       <c r="N229" t="n">
-        <v>0.07208104951290357</v>
+        <v>0.07743247788421638</v>
       </c>
       <c r="O229" t="n">
         <v>5.414230947213102</v>
@@ -7155,25 +7155,25 @@
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.03145640901518443</v>
+        <v>0.03406112393531916</v>
       </c>
       <c r="G230" t="n">
         <v>5.447244550549767</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03145640901518443</v>
+        <v>0.03406112393531916</v>
       </c>
       <c r="K230" t="n">
         <v>5.447244550549767</v>
       </c>
       <c r="L230" t="n">
-        <v>0.05252397638819876</v>
+        <v>0.05374946446400775</v>
       </c>
       <c r="M230" t="n">
         <v>5.447244550549767</v>
       </c>
       <c r="N230" t="n">
-        <v>0.06939487284567877</v>
+        <v>0.07474390881174355</v>
       </c>
       <c r="O230" t="n">
         <v>5.447244550549767</v>
@@ -7181,25 +7181,25 @@
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.03192122155606621</v>
+        <v>0.03264701835665651</v>
       </c>
       <c r="G231" t="n">
         <v>5.480258153886432</v>
       </c>
       <c r="J231" t="n">
-        <v>0.03192122155606621</v>
+        <v>0.03264701835665651</v>
       </c>
       <c r="K231" t="n">
         <v>5.480258153886432</v>
       </c>
       <c r="L231" t="n">
-        <v>0.05078868821630298</v>
+        <v>0.05422101474893815</v>
       </c>
       <c r="M231" t="n">
         <v>5.480258153886432</v>
       </c>
       <c r="N231" t="n">
-        <v>0.0690702934647265</v>
+        <v>0.07379481943212658</v>
       </c>
       <c r="O231" t="n">
         <v>5.480258153886432</v>
@@ -7207,25 +7207,25 @@
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.03184500066011092</v>
+        <v>0.03354906109026776</v>
       </c>
       <c r="G232" t="n">
         <v>5.513271757223097</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03184500066011092</v>
+        <v>0.03354906109026776</v>
       </c>
       <c r="K232" t="n">
         <v>5.513271757223097</v>
       </c>
       <c r="L232" t="n">
-        <v>0.05255422262032047</v>
+        <v>0.05344003403547775</v>
       </c>
       <c r="M232" t="n">
         <v>5.513271757223097</v>
       </c>
       <c r="N232" t="n">
-        <v>0.06902759819033275</v>
+        <v>0.07517013108259937</v>
       </c>
       <c r="O232" t="n">
         <v>5.513271757223097</v>
@@ -7233,25 +7233,25 @@
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.03244277016302083</v>
+        <v>0.03202077500716598</v>
       </c>
       <c r="G233" t="n">
         <v>5.546285360559763</v>
       </c>
       <c r="J233" t="n">
-        <v>0.03244277016302083</v>
+        <v>0.03202077500716598</v>
       </c>
       <c r="K233" t="n">
         <v>5.546285360559763</v>
       </c>
       <c r="L233" t="n">
-        <v>0.05219695390797464</v>
+        <v>0.05521316054852763</v>
       </c>
       <c r="M233" t="n">
         <v>5.546285360559763</v>
       </c>
       <c r="N233" t="n">
-        <v>0.06666638757418532</v>
+        <v>0.07460090230869813</v>
       </c>
       <c r="O233" t="n">
         <v>5.546285360559763</v>
@@ -7259,25 +7259,25 @@
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.03178626680414438</v>
+        <v>0.03290668391994191</v>
       </c>
       <c r="G234" t="n">
         <v>5.579298963896428</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03178626680414438</v>
+        <v>0.03290668391994191</v>
       </c>
       <c r="K234" t="n">
         <v>5.579298963896428</v>
       </c>
       <c r="L234" t="n">
-        <v>0.04943213139114136</v>
+        <v>0.05432862820263329</v>
       </c>
       <c r="M234" t="n">
         <v>5.579298963896428</v>
       </c>
       <c r="N234" t="n">
-        <v>0.06650312871058046</v>
+        <v>0.07670553232807706</v>
       </c>
       <c r="O234" t="n">
         <v>5.579298963896428</v>
@@ -7285,25 +7285,25 @@
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.03226243839309968</v>
+        <v>0.0327202255113439</v>
       </c>
       <c r="G235" t="n">
         <v>5.612312567233094</v>
       </c>
       <c r="J235" t="n">
-        <v>0.03226243839309968</v>
+        <v>0.0327202255113439</v>
       </c>
       <c r="K235" t="n">
         <v>5.612312567233094</v>
       </c>
       <c r="L235" t="n">
-        <v>0.05045023957511072</v>
+        <v>0.0524974476818504</v>
       </c>
       <c r="M235" t="n">
         <v>5.612312567233094</v>
       </c>
       <c r="N235" t="n">
-        <v>0.06727151157888463</v>
+        <v>0.07691878383930797</v>
       </c>
       <c r="O235" t="n">
         <v>5.612312567233094</v>
@@ -7311,25 +7311,25 @@
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.03095988004745225</v>
+        <v>0.03236650118758744</v>
       </c>
       <c r="G236" t="n">
         <v>5.645326170569758</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03095988004745225</v>
+        <v>0.03236650118758744</v>
       </c>
       <c r="K236" t="n">
         <v>5.645326170569758</v>
       </c>
       <c r="L236" t="n">
-        <v>0.04866551787348463</v>
+        <v>0.05383196703670821</v>
       </c>
       <c r="M236" t="n">
         <v>5.645326170569758</v>
       </c>
       <c r="N236" t="n">
-        <v>0.06488023311696843</v>
+        <v>0.07704092260788441</v>
       </c>
       <c r="O236" t="n">
         <v>5.645326170569758</v>
@@ -7337,25 +7337,25 @@
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.03052723644428208</v>
+        <v>0.03175419100408099</v>
       </c>
       <c r="G237" t="n">
         <v>5.678339773906424</v>
       </c>
       <c r="J237" t="n">
-        <v>0.03052723644428208</v>
+        <v>0.03175419100408099</v>
       </c>
       <c r="K237" t="n">
         <v>5.678339773906424</v>
       </c>
       <c r="L237" t="n">
-        <v>0.04906231440492829</v>
+        <v>0.05208622011973503</v>
       </c>
       <c r="M237" t="n">
         <v>5.678339773906424</v>
       </c>
       <c r="N237" t="n">
-        <v>0.06435407538232571</v>
+        <v>0.07429170621967361</v>
       </c>
       <c r="O237" t="n">
         <v>5.678339773906424</v>
@@ -7363,25 +7363,25 @@
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.03116894538643215</v>
+        <v>0.03224797960840296</v>
       </c>
       <c r="G238" t="n">
         <v>5.711353377243089</v>
       </c>
       <c r="J238" t="n">
-        <v>0.03116894538643215</v>
+        <v>0.03224797960840296</v>
       </c>
       <c r="K238" t="n">
         <v>5.711353377243089</v>
       </c>
       <c r="L238" t="n">
-        <v>0.04834178613500079</v>
+        <v>0.05302236010117103</v>
       </c>
       <c r="M238" t="n">
         <v>5.711353377243089</v>
       </c>
       <c r="N238" t="n">
-        <v>0.06366610778540477</v>
+        <v>0.07708782260874356</v>
       </c>
       <c r="O238" t="n">
         <v>5.711353377243089</v>
@@ -7389,25 +7389,25 @@
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.0315287879562578</v>
+        <v>0.03210277897982152</v>
       </c>
       <c r="G239" t="n">
         <v>5.744366980579754</v>
       </c>
       <c r="J239" t="n">
-        <v>0.0315287879562578</v>
+        <v>0.03210277897982152</v>
       </c>
       <c r="K239" t="n">
         <v>5.744366980579754</v>
       </c>
       <c r="L239" t="n">
-        <v>0.0478919048043149</v>
+        <v>0.05172943871493754</v>
       </c>
       <c r="M239" t="n">
         <v>5.744366980579754</v>
       </c>
       <c r="N239" t="n">
-        <v>0.06521585680741769</v>
+        <v>0.07430065846261989</v>
       </c>
       <c r="O239" t="n">
         <v>5.744366980579754</v>
@@ -7415,25 +7415,25 @@
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.03050233859967211</v>
+        <v>0.03036388960062284</v>
       </c>
       <c r="G240" t="n">
         <v>5.777380583916419</v>
       </c>
       <c r="J240" t="n">
-        <v>0.03050233859967211</v>
+        <v>0.03036388960062284</v>
       </c>
       <c r="K240" t="n">
         <v>5.777380583916419</v>
       </c>
       <c r="L240" t="n">
-        <v>0.04796825175462897</v>
+        <v>0.05330210683108092</v>
       </c>
       <c r="M240" t="n">
         <v>5.777380583916419</v>
       </c>
       <c r="N240" t="n">
-        <v>0.06342066684629864</v>
+        <v>0.07382281977423007</v>
       </c>
       <c r="O240" t="n">
         <v>5.777380583916419</v>
@@ -7441,25 +7441,25 @@
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.03139152554425502</v>
+        <v>0.0299077288492222</v>
       </c>
       <c r="G241" t="n">
         <v>5.810394187253085</v>
       </c>
       <c r="J241" t="n">
-        <v>0.03139152554425502</v>
+        <v>0.0299077288492222</v>
       </c>
       <c r="K241" t="n">
         <v>5.810394187253085</v>
       </c>
       <c r="L241" t="n">
-        <v>0.04694734084912731</v>
+        <v>0.05396800608824508</v>
       </c>
       <c r="M241" t="n">
         <v>5.810394187253085</v>
       </c>
       <c r="N241" t="n">
-        <v>0.06134075177648595</v>
+        <v>0.07821442476659637</v>
       </c>
       <c r="O241" t="n">
         <v>5.810394187253085</v>
@@ -7467,25 +7467,25 @@
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.03036163684576107</v>
+        <v>0.03100926328970659</v>
       </c>
       <c r="G242" t="n">
         <v>5.84340779058975</v>
       </c>
       <c r="J242" t="n">
-        <v>0.03036163684576107</v>
+        <v>0.03100926328970659</v>
       </c>
       <c r="K242" t="n">
         <v>5.84340779058975</v>
       </c>
       <c r="L242" t="n">
-        <v>0.04531268597670086</v>
+        <v>0.05429983788021272</v>
       </c>
       <c r="M242" t="n">
         <v>5.84340779058975</v>
       </c>
       <c r="N242" t="n">
-        <v>0.06404489273859595</v>
+        <v>0.07646806439101975</v>
       </c>
       <c r="O242" t="n">
         <v>5.84340779058975</v>
@@ -7493,25 +7493,25 @@
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.03134394503296174</v>
+        <v>0.02961860497210158</v>
       </c>
       <c r="G243" t="n">
         <v>5.876421393926416</v>
       </c>
       <c r="J243" t="n">
-        <v>0.03134394503296174</v>
+        <v>0.02961860497210158</v>
       </c>
       <c r="K243" t="n">
         <v>5.876421393926416</v>
       </c>
       <c r="L243" t="n">
-        <v>0.04479768693951922</v>
+        <v>0.05313162351122914</v>
       </c>
       <c r="M243" t="n">
         <v>5.876421393926416</v>
       </c>
       <c r="N243" t="n">
-        <v>0.06262538334926457</v>
+        <v>0.07805668821221978</v>
       </c>
       <c r="O243" t="n">
         <v>5.876421393926416</v>
@@ -7519,25 +7519,25 @@
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.03005493155345328</v>
+        <v>0.03036065209593293</v>
       </c>
       <c r="G244" t="n">
         <v>5.90943499726308</v>
       </c>
       <c r="J244" t="n">
-        <v>0.03005493155345328</v>
+        <v>0.03036065209593293</v>
       </c>
       <c r="K244" t="n">
         <v>5.90943499726308</v>
       </c>
       <c r="L244" t="n">
-        <v>0.04528261046138111</v>
+        <v>0.05362097317819749</v>
       </c>
       <c r="M244" t="n">
         <v>5.90943499726308</v>
       </c>
       <c r="N244" t="n">
-        <v>0.06283817843753833</v>
+        <v>0.07598371748654299</v>
       </c>
       <c r="O244" t="n">
         <v>5.90943499726308</v>
@@ -7545,25 +7545,25 @@
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.02950471146200234</v>
+        <v>0.03019387507265488</v>
       </c>
       <c r="G245" t="n">
         <v>5.942448600599746</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02950471146200234</v>
+        <v>0.03019387507265488</v>
       </c>
       <c r="K245" t="n">
         <v>5.942448600599746</v>
       </c>
       <c r="L245" t="n">
-        <v>0.0455418794206525</v>
+        <v>0.05353415791920101</v>
       </c>
       <c r="M245" t="n">
         <v>5.942448600599746</v>
       </c>
       <c r="N245" t="n">
-        <v>0.06108809563367591</v>
+        <v>0.07814224579767759</v>
       </c>
       <c r="O245" t="n">
         <v>5.942448600599746</v>
@@ -7571,25 +7571,25 @@
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.03053862936731709</v>
+        <v>0.02991330056482481</v>
       </c>
       <c r="G246" t="n">
         <v>5.975462203936411</v>
       </c>
       <c r="J246" t="n">
-        <v>0.03053862936731709</v>
+        <v>0.02991330056482481</v>
       </c>
       <c r="K246" t="n">
         <v>5.975462203936411</v>
       </c>
       <c r="L246" t="n">
-        <v>0.04347146591886772</v>
+        <v>0.05379001650472364</v>
       </c>
       <c r="M246" t="n">
         <v>5.975462203936411</v>
       </c>
       <c r="N246" t="n">
-        <v>0.06001380489352501</v>
+        <v>0.07574265079925128</v>
       </c>
       <c r="O246" t="n">
         <v>5.975462203936411</v>
@@ -7597,25 +7597,25 @@
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.03083630060440978</v>
+        <v>0.0293285901499841</v>
       </c>
       <c r="G247" t="n">
         <v>6.008475807273076</v>
       </c>
       <c r="J247" t="n">
-        <v>0.03083630060440978</v>
+        <v>0.0293285901499841</v>
       </c>
       <c r="K247" t="n">
         <v>6.008475807273076</v>
       </c>
       <c r="L247" t="n">
-        <v>0.04188543666099125</v>
+        <v>0.05232759825474052</v>
       </c>
       <c r="M247" t="n">
         <v>6.008475807273076</v>
       </c>
       <c r="N247" t="n">
-        <v>0.05880310622286333</v>
+        <v>0.07588049374686863</v>
       </c>
       <c r="O247" t="n">
         <v>6.008475807273076</v>
@@ -7623,25 +7623,25 @@
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.02969252812424939</v>
+        <v>0.02827619750527845</v>
       </c>
       <c r="G248" t="n">
         <v>6.041489410609741</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02969252812424939</v>
+        <v>0.02827619750527845</v>
       </c>
       <c r="K248" t="n">
         <v>6.041489410609741</v>
       </c>
       <c r="L248" t="n">
-        <v>0.04140103805790357</v>
+        <v>0.05212284513606322</v>
       </c>
       <c r="M248" t="n">
         <v>6.041489410609741</v>
       </c>
       <c r="N248" t="n">
-        <v>0.06005014077321939</v>
+        <v>0.07533463902077432</v>
       </c>
       <c r="O248" t="n">
         <v>6.041489410609741</v>
@@ -7649,25 +7649,25 @@
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.03021221956450242</v>
+        <v>0.02795924122765658</v>
       </c>
       <c r="G249" t="n">
         <v>6.074503013946407</v>
       </c>
       <c r="J249" t="n">
-        <v>0.03021221956450242</v>
+        <v>0.02795924122765658</v>
       </c>
       <c r="K249" t="n">
         <v>6.074503013946407</v>
       </c>
       <c r="L249" t="n">
-        <v>0.04080338669429978</v>
+        <v>0.05331712817213845</v>
       </c>
       <c r="M249" t="n">
         <v>6.074503013946407</v>
       </c>
       <c r="N249" t="n">
-        <v>0.0597082299505868</v>
+        <v>0.07438615949768483</v>
       </c>
       <c r="O249" t="n">
         <v>6.074503013946407</v>
@@ -7675,25 +7675,25 @@
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.03059446862726259</v>
+        <v>0.02795988774746733</v>
       </c>
       <c r="G250" t="n">
         <v>6.107516617283072</v>
       </c>
       <c r="J250" t="n">
-        <v>0.03059446862726259</v>
+        <v>0.02795988774746733</v>
       </c>
       <c r="K250" t="n">
         <v>6.107516617283072</v>
       </c>
       <c r="L250" t="n">
-        <v>0.04202971810564146</v>
+        <v>0.05219071142156882</v>
       </c>
       <c r="M250" t="n">
         <v>6.107516617283072</v>
       </c>
       <c r="N250" t="n">
-        <v>0.05729311409326772</v>
+        <v>0.07643872765089887</v>
       </c>
       <c r="O250" t="n">
         <v>6.107516617283072</v>
@@ -7701,25 +7701,25 @@
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.02951452853281532</v>
+        <v>0.02743855208913645</v>
       </c>
       <c r="G251" t="n">
         <v>6.140530220619738</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02951452853281532</v>
+        <v>0.02743855208913645</v>
       </c>
       <c r="K251" t="n">
         <v>6.140530220619738</v>
       </c>
       <c r="L251" t="n">
-        <v>0.04013337638715007</v>
+        <v>0.05174369342143239</v>
       </c>
       <c r="M251" t="n">
         <v>6.140530220619738</v>
       </c>
       <c r="N251" t="n">
-        <v>0.05657901059543771</v>
+        <v>0.07546755473700238</v>
       </c>
       <c r="O251" t="n">
         <v>6.140530220619738</v>
@@ -7727,25 +7727,25 @@
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.0304289192776914</v>
+        <v>0.02781035260229549</v>
       </c>
       <c r="G252" t="n">
         <v>6.173543823956402</v>
       </c>
       <c r="J252" t="n">
-        <v>0.0304289192776914</v>
+        <v>0.02781035260229549</v>
       </c>
       <c r="K252" t="n">
         <v>6.173543823956402</v>
       </c>
       <c r="L252" t="n">
-        <v>0.03992749935884289</v>
+        <v>0.05030752598047339</v>
       </c>
       <c r="M252" t="n">
         <v>6.173543823956402</v>
       </c>
       <c r="N252" t="n">
-        <v>0.05709466035426164</v>
+        <v>0.07746714452741882</v>
       </c>
       <c r="O252" t="n">
         <v>6.173543823956402</v>
@@ -7753,25 +7753,25 @@
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.02886612993559207</v>
+        <v>0.02740694865258655</v>
       </c>
       <c r="G253" t="n">
         <v>6.206557427293068</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02886612993559207</v>
+        <v>0.02740694865258655</v>
       </c>
       <c r="K253" t="n">
         <v>6.206557427293068</v>
       </c>
       <c r="L253" t="n">
-        <v>0.03820507233668167</v>
+        <v>0.05014536759817709</v>
       </c>
       <c r="M253" t="n">
         <v>6.206557427293068</v>
       </c>
       <c r="N253" t="n">
-        <v>0.05820235938773541</v>
+        <v>0.07590343507029802</v>
       </c>
       <c r="O253" t="n">
         <v>6.206557427293068</v>
@@ -7779,25 +7779,25 @@
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.02872810157528736</v>
+        <v>0.02812952997652323</v>
       </c>
       <c r="G254" t="n">
         <v>6.239571030629733</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02872810157528736</v>
+        <v>0.02812952997652323</v>
       </c>
       <c r="K254" t="n">
         <v>6.239571030629733</v>
       </c>
       <c r="L254" t="n">
-        <v>0.03737526044219569</v>
+        <v>0.05119798548502832</v>
       </c>
       <c r="M254" t="n">
         <v>6.239571030629733</v>
       </c>
       <c r="N254" t="n">
-        <v>0.05773876030587433</v>
+        <v>0.07430173589407053</v>
       </c>
       <c r="O254" t="n">
         <v>6.239571030629733</v>
@@ -7805,25 +7805,25 @@
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.03039169094248645</v>
+        <v>0.02777824458712444</v>
       </c>
       <c r="G255" t="n">
         <v>6.272584633966398</v>
       </c>
       <c r="J255" t="n">
-        <v>0.03039169094248645</v>
+        <v>0.02777824458712444</v>
       </c>
       <c r="K255" t="n">
         <v>6.272584633966398</v>
       </c>
       <c r="L255" t="n">
-        <v>0.0367773552483934</v>
+        <v>0.05157908684627354</v>
       </c>
       <c r="M255" t="n">
         <v>6.272584633966398</v>
       </c>
       <c r="N255" t="n">
-        <v>0.05505796838364037</v>
+        <v>0.07691706076504691</v>
       </c>
       <c r="O255" t="n">
         <v>6.272584633966398</v>
@@ -7831,25 +7831,25 @@
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.02990444047492393</v>
+        <v>0.0274175503196878</v>
       </c>
       <c r="G256" t="n">
         <v>6.305598237303063</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02990444047492393</v>
+        <v>0.0274175503196878</v>
       </c>
       <c r="K256" t="n">
         <v>6.305598237303063</v>
       </c>
       <c r="L256" t="n">
-        <v>0.03639847158821313</v>
+        <v>0.05224341936940614</v>
       </c>
       <c r="M256" t="n">
         <v>6.305598237303063</v>
       </c>
       <c r="N256" t="n">
-        <v>0.05687350764408231</v>
+        <v>0.0774278003430796</v>
       </c>
       <c r="O256" t="n">
         <v>6.305598237303063</v>
@@ -7857,25 +7857,25 @@
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.03009904449964063</v>
+        <v>0.02611802279151309</v>
       </c>
       <c r="G257" t="n">
         <v>6.338611840639729</v>
       </c>
       <c r="J257" t="n">
-        <v>0.03009904449964063</v>
+        <v>0.02611802279151309</v>
       </c>
       <c r="K257" t="n">
         <v>6.338611840639729</v>
       </c>
       <c r="L257" t="n">
-        <v>0.03612034946247217</v>
+        <v>0.05016436843761584</v>
       </c>
       <c r="M257" t="n">
         <v>6.338611840639729</v>
       </c>
       <c r="N257" t="n">
-        <v>0.05381889085942712</v>
+        <v>0.07632772972021137</v>
       </c>
       <c r="O257" t="n">
         <v>6.338611840639729</v>
@@ -7883,25 +7883,25 @@
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.0285272023606954</v>
+        <v>0.02685229254295679</v>
       </c>
       <c r="G258" t="n">
         <v>6.371625443976394</v>
       </c>
       <c r="J258" t="n">
-        <v>0.0285272023606954</v>
+        <v>0.02685229254295679</v>
       </c>
       <c r="K258" t="n">
         <v>6.371625443976394</v>
       </c>
       <c r="L258" t="n">
-        <v>0.03507977241763165</v>
+        <v>0.05122844228038957</v>
       </c>
       <c r="M258" t="n">
         <v>6.371625443976394</v>
       </c>
       <c r="N258" t="n">
-        <v>0.05569823671250934</v>
+        <v>0.07662584677159248</v>
       </c>
       <c r="O258" t="n">
         <v>6.371625443976394</v>
@@ -7909,25 +7909,25 @@
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.02898020861284982</v>
+        <v>0.02622679969269586</v>
       </c>
       <c r="G259" t="n">
         <v>6.40463904731306</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02898020861284982</v>
+        <v>0.02622679969269586</v>
       </c>
       <c r="K259" t="n">
         <v>6.40463904731306</v>
       </c>
       <c r="L259" t="n">
-        <v>0.03577527354772874</v>
+        <v>0.05198773285491171</v>
       </c>
       <c r="M259" t="n">
         <v>6.40463904731306</v>
       </c>
       <c r="N259" t="n">
-        <v>0.05401223812675952</v>
+        <v>0.07694684289929092</v>
       </c>
       <c r="O259" t="n">
         <v>6.40463904731306</v>
@@ -7935,25 +7935,25 @@
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.02980130930676041</v>
+        <v>0.02655607108404326</v>
       </c>
       <c r="G260" t="n">
         <v>6.437652650649724</v>
       </c>
       <c r="J260" t="n">
-        <v>0.02980130930676041</v>
+        <v>0.02655607108404326</v>
       </c>
       <c r="K260" t="n">
         <v>6.437652650649724</v>
       </c>
       <c r="L260" t="n">
-        <v>0.03490288295736753</v>
+        <v>0.05219021326885959</v>
       </c>
       <c r="M260" t="n">
         <v>6.437652650649724</v>
       </c>
       <c r="N260" t="n">
-        <v>0.05405125087407565</v>
+        <v>0.07440305359715284</v>
       </c>
       <c r="O260" t="n">
         <v>6.437652650649724</v>
@@ -7961,25 +7961,25 @@
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.02843918588276732</v>
+        <v>0.02535708226403582</v>
       </c>
       <c r="G261" t="n">
         <v>6.47066625398639</v>
       </c>
       <c r="J261" t="n">
-        <v>0.02843918588276732</v>
+        <v>0.02535708226403582</v>
       </c>
       <c r="K261" t="n">
         <v>6.47066625398639</v>
       </c>
       <c r="L261" t="n">
-        <v>0.03232037317626241</v>
+        <v>0.05137233263876086</v>
       </c>
       <c r="M261" t="n">
         <v>6.47066625398639</v>
       </c>
       <c r="N261" t="n">
-        <v>0.05378557493441376</v>
+        <v>0.0769051546875142</v>
       </c>
       <c r="O261" t="n">
         <v>6.47066625398639</v>
@@ -7987,25 +7987,25 @@
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.02899850781218911</v>
+        <v>0.02557590886623523</v>
       </c>
       <c r="G262" t="n">
         <v>6.503679857323055</v>
       </c>
       <c r="J262" t="n">
-        <v>0.02899850781218911</v>
+        <v>0.02557590886623523</v>
       </c>
       <c r="K262" t="n">
         <v>6.503679857323055</v>
       </c>
       <c r="L262" t="n">
-        <v>0.0334127633281309</v>
+        <v>0.05101656377008875</v>
       </c>
       <c r="M262" t="n">
         <v>6.503679857323055</v>
       </c>
       <c r="N262" t="n">
-        <v>0.05442016479448841</v>
+        <v>0.07441457045058612</v>
       </c>
       <c r="O262" t="n">
         <v>6.503679857323055</v>
@@ -8013,25 +8013,25 @@
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.02881761860101324</v>
+        <v>0.02591929115684619</v>
       </c>
       <c r="G263" t="n">
         <v>6.53669346065972</v>
       </c>
       <c r="J263" t="n">
-        <v>0.02881761860101324</v>
+        <v>0.02591929115684619</v>
       </c>
       <c r="K263" t="n">
         <v>6.53669346065972</v>
       </c>
       <c r="L263" t="n">
-        <v>0.03176880543751272</v>
+        <v>0.05100976504230158</v>
       </c>
       <c r="M263" t="n">
         <v>6.53669346065972</v>
       </c>
       <c r="N263" t="n">
-        <v>0.05305414556873937</v>
+        <v>0.07500181551054505</v>
       </c>
       <c r="O263" t="n">
         <v>6.53669346065972</v>
@@ -8039,25 +8039,25 @@
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.02903732209026937</v>
+        <v>0.02503086993974615</v>
       </c>
       <c r="G264" t="n">
         <v>6.569707063996385</v>
       </c>
       <c r="J264" t="n">
-        <v>0.02903732209026937</v>
+        <v>0.02503086993974615</v>
       </c>
       <c r="K264" t="n">
         <v>6.569707063996385</v>
       </c>
       <c r="L264" t="n">
-        <v>0.03093447496088336</v>
+        <v>0.04907367672659582</v>
       </c>
       <c r="M264" t="n">
         <v>6.569707063996385</v>
       </c>
       <c r="N264" t="n">
-        <v>0.05246031092699063</v>
+        <v>0.0740995753083307</v>
       </c>
       <c r="O264" t="n">
         <v>6.569707063996385</v>
